--- a/data/English_Master_Glossary.xlsx
+++ b/data/English_Master_Glossary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bad4d72f69b26f17/내 문서/유란시아/유란시아서 본문/TEXT버전/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E840E4FE-1F52-4DE9-8E54-9228B50D72C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AA7F1A7-E06E-44D5-ACC8-6BE7A9C94C52}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{E840E4FE-1F52-4DE9-8E54-9228B50D72C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA04C67F-1382-4F99-8A4E-B8FD410F5CA0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2205" yWindow="390" windowWidth="18600" windowHeight="12390" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="390" windowWidth="18600" windowHeight="12390" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TruthBookSearchIssues" sheetId="7" r:id="rId1"/>
@@ -10105,7 +10105,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10193,8 +10193,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -10208,17 +10214,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -14624,6 +14621,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -14925,10 +14926,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>3060</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="21" t="s">
@@ -14992,15 +14993,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>1688</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38" t="s">
         <v>1694</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="38" t="s">
         <v>1697</v>
       </c>
     </row>
@@ -15014,8 +15015,8 @@
       <c r="C2" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
@@ -15318,11 +15319,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.65" x14ac:dyDescent="0.6">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>3069</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="24" t="s">
@@ -15482,8 +15483,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B1551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1516" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -15497,7 +15498,7 @@
       <c r="A1" s="26" t="s">
         <v>3087</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="40" t="s">
         <v>3088</v>
       </c>
     </row>
@@ -15509,7 +15510,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -15517,7 +15518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A4" s="11" t="s">
         <v>936</v>
       </c>
@@ -15533,7 +15534,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A6" s="11" t="s">
         <v>785</v>
       </c>
@@ -15541,7 +15542,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A7" s="11" t="s">
         <v>675</v>
       </c>
@@ -15557,7 +15558,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="11" t="s">
         <v>1517</v>
       </c>
@@ -15581,7 +15582,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A12" s="11" t="s">
         <v>676</v>
       </c>
@@ -15589,7 +15590,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
@@ -15597,7 +15598,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
@@ -15605,7 +15606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A15" s="11" t="s">
         <v>1669</v>
       </c>
@@ -15621,7 +15622,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A17" s="11" t="s">
         <v>476</v>
       </c>
@@ -15629,7 +15630,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A18" s="11" t="s">
         <v>1511</v>
       </c>
@@ -15637,7 +15638,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
@@ -15645,7 +15646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
@@ -15653,7 +15654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A21" s="11" t="s">
         <v>1062</v>
       </c>
@@ -15661,7 +15662,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A22" s="11" t="s">
         <v>677</v>
       </c>
@@ -15669,7 +15670,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A23" s="11" t="s">
         <v>13</v>
       </c>
@@ -15677,7 +15678,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A24" s="11" t="s">
         <v>14</v>
       </c>
@@ -15685,15 +15686,15 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A25" s="11" t="s">
         <v>1875</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="35" t="s">
         <v>2937</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A26" s="11" t="s">
         <v>1636</v>
       </c>
@@ -15701,7 +15702,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A27" s="11" t="s">
         <v>1502</v>
       </c>
@@ -15717,7 +15718,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A29" s="11" t="s">
         <v>1095</v>
       </c>
@@ -15725,7 +15726,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A30" s="11" t="s">
         <v>15</v>
       </c>
@@ -15733,7 +15734,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A31" s="11" t="s">
         <v>1097</v>
       </c>
@@ -15741,7 +15742,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A32" s="11" t="s">
         <v>1686</v>
       </c>
@@ -15757,11 +15758,11 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A34" s="11" t="s">
         <v>1876</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="14" t="s">
         <v>1877</v>
       </c>
     </row>
@@ -15773,7 +15774,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A36" s="11" t="s">
         <v>17</v>
       </c>
@@ -15781,7 +15782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="11" t="s">
         <v>19</v>
       </c>
@@ -15789,7 +15790,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A38" s="11" t="s">
         <v>1878</v>
       </c>
@@ -15797,7 +15798,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A39" s="11" t="s">
         <v>20</v>
       </c>
@@ -15805,7 +15806,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A40" s="11" t="s">
         <v>786</v>
       </c>
@@ -15813,7 +15814,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A41" s="11" t="s">
         <v>678</v>
       </c>
@@ -15837,7 +15838,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A44" s="11" t="s">
         <v>479</v>
       </c>
@@ -15845,7 +15846,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A45" s="11" t="s">
         <v>1127</v>
       </c>
@@ -15853,7 +15854,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A46" s="11" t="s">
         <v>1499</v>
       </c>
@@ -15861,7 +15862,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A47" s="11" t="s">
         <v>480</v>
       </c>
@@ -15869,23 +15870,23 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A48" s="11" t="s">
         <v>1523</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="14" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A49" s="11" t="s">
         <v>1359</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="14" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A50" s="11" t="s">
         <v>1405</v>
       </c>
@@ -15893,7 +15894,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A51" s="11" t="s">
         <v>21</v>
       </c>
@@ -15901,7 +15902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A52" s="11" t="s">
         <v>1397</v>
       </c>
@@ -15925,7 +15926,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A55" s="11" t="s">
         <v>1151</v>
       </c>
@@ -15933,7 +15934,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A56" s="11" t="s">
         <v>24</v>
       </c>
@@ -15949,7 +15950,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A58" s="11" t="s">
         <v>1152</v>
       </c>
@@ -15957,7 +15958,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A59" s="11" t="s">
         <v>25</v>
       </c>
@@ -15965,7 +15966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A60" s="11" t="s">
         <v>1574</v>
       </c>
@@ -15973,7 +15974,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A61" s="11" t="s">
         <v>482</v>
       </c>
@@ -15981,7 +15982,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A62" s="11" t="s">
         <v>874</v>
       </c>
@@ -15989,7 +15990,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A63" s="11" t="s">
         <v>27</v>
       </c>
@@ -15997,7 +15998,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A64" s="11" t="s">
         <v>1032</v>
       </c>
@@ -16005,7 +16006,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A65" s="11" t="s">
         <v>28</v>
       </c>
@@ -16013,7 +16014,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A66" s="11" t="s">
         <v>680</v>
       </c>
@@ -16021,7 +16022,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A67" s="11" t="s">
         <v>483</v>
       </c>
@@ -16029,7 +16030,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A68" s="11" t="s">
         <v>29</v>
       </c>
@@ -16053,7 +16054,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A71" s="11" t="s">
         <v>1600</v>
       </c>
@@ -16061,7 +16062,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A72" s="11" t="s">
         <v>1597</v>
       </c>
@@ -16069,7 +16070,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A73" s="11" t="s">
         <v>1475</v>
       </c>
@@ -16085,7 +16086,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A75" s="11" t="s">
         <v>31</v>
       </c>
@@ -16097,11 +16098,11 @@
       <c r="A76" s="11" t="s">
         <v>1616</v>
       </c>
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="14" t="s">
         <v>2075</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A77" s="11" t="s">
         <v>1330</v>
       </c>
@@ -16149,7 +16150,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A83" s="11" t="s">
         <v>938</v>
       </c>
@@ -16173,7 +16174,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A86" s="11" t="s">
         <v>34</v>
       </c>
@@ -16181,7 +16182,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A87" s="11" t="s">
         <v>489</v>
       </c>
@@ -16189,7 +16190,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A88" s="11" t="s">
         <v>35</v>
       </c>
@@ -16197,7 +16198,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A89" s="11" t="s">
         <v>787</v>
       </c>
@@ -16205,7 +16206,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A90" s="11" t="s">
         <v>36</v>
       </c>
@@ -16213,7 +16214,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A91" s="11" t="s">
         <v>1884</v>
       </c>
@@ -16221,7 +16222,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A92" s="11" t="s">
         <v>1303</v>
       </c>
@@ -16229,7 +16230,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A93" s="11" t="s">
         <v>1382</v>
       </c>
@@ -16237,15 +16238,15 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A94" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="14" t="s">
         <v>2087</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A95" s="11" t="s">
         <v>788</v>
       </c>
@@ -16269,7 +16270,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="48" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A98" s="11" t="s">
         <v>37</v>
       </c>
@@ -16277,7 +16278,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A99" s="11" t="s">
         <v>1242</v>
       </c>
@@ -16285,7 +16286,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A100" s="11" t="s">
         <v>1672</v>
       </c>
@@ -16293,7 +16294,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A101" s="11" t="s">
         <v>939</v>
       </c>
@@ -16301,7 +16302,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A102" s="11" t="s">
         <v>683</v>
       </c>
@@ -16309,7 +16310,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A103" s="11" t="s">
         <v>494</v>
       </c>
@@ -16337,19 +16338,19 @@
       <c r="A106" s="11" t="s">
         <v>1033</v>
       </c>
-      <c r="B106" s="40" t="s">
+      <c r="B106" s="14" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A107" s="11" t="s">
         <v>789</v>
       </c>
-      <c r="B107" s="40" t="s">
+      <c r="B107" s="14" t="s">
         <v>2095</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A108" s="11" t="s">
         <v>39</v>
       </c>
@@ -16357,7 +16358,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A109" s="11" t="s">
         <v>1440</v>
       </c>
@@ -16373,7 +16374,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A111" s="11" t="s">
         <v>790</v>
       </c>
@@ -16389,7 +16390,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A113" s="11" t="s">
         <v>1373</v>
       </c>
@@ -16397,7 +16398,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A114" s="11" t="s">
         <v>1304</v>
       </c>
@@ -16421,7 +16422,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A117" s="11" t="s">
         <v>40</v>
       </c>
@@ -16437,7 +16438,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A119" s="11" t="s">
         <v>42</v>
       </c>
@@ -16453,7 +16454,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A121" s="11" t="s">
         <v>44</v>
       </c>
@@ -16477,7 +16478,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A124" s="11" t="s">
         <v>497</v>
       </c>
@@ -16485,7 +16486,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A125" s="11" t="s">
         <v>1449</v>
       </c>
@@ -16493,7 +16494,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A126" s="11" t="s">
         <v>1392</v>
       </c>
@@ -16525,7 +16526,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A130" s="11" t="s">
         <v>1638</v>
       </c>
@@ -16541,7 +16542,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A132" s="11" t="s">
         <v>1314</v>
       </c>
@@ -16549,7 +16550,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A133" s="11" t="s">
         <v>1582</v>
       </c>
@@ -16557,7 +16558,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A134" s="11" t="s">
         <v>47</v>
       </c>
@@ -16581,7 +16582,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A137" s="11" t="s">
         <v>684</v>
       </c>
@@ -16597,7 +16598,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A139" s="11" t="s">
         <v>1154</v>
       </c>
@@ -16605,7 +16606,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A140" s="11" t="s">
         <v>1102</v>
       </c>
@@ -16613,7 +16614,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A141" s="11" t="s">
         <v>1034</v>
       </c>
@@ -16621,7 +16622,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A142" s="11" t="s">
         <v>685</v>
       </c>
@@ -16637,7 +16638,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A144" s="11" t="s">
         <v>988</v>
       </c>
@@ -16645,7 +16646,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A145" s="11" t="s">
         <v>50</v>
       </c>
@@ -16653,7 +16654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A146" s="11" t="s">
         <v>52</v>
       </c>
@@ -16669,7 +16670,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A148" s="11" t="s">
         <v>1192</v>
       </c>
@@ -16693,7 +16694,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A151" s="11" t="s">
         <v>1064</v>
       </c>
@@ -16701,7 +16702,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A152" s="11" t="s">
         <v>499</v>
       </c>
@@ -16709,7 +16710,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A153" s="11" t="s">
         <v>54</v>
       </c>
@@ -16717,7 +16718,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A154" s="11" t="s">
         <v>55</v>
       </c>
@@ -16725,7 +16726,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A155" s="11" t="s">
         <v>878</v>
       </c>
@@ -16733,7 +16734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A156" s="11" t="s">
         <v>1367</v>
       </c>
@@ -16741,7 +16742,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A157" s="11" t="s">
         <v>56</v>
       </c>
@@ -16757,7 +16758,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A159" s="11" t="s">
         <v>501</v>
       </c>
@@ -16773,7 +16774,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A161" s="11" t="s">
         <v>57</v>
       </c>
@@ -16781,7 +16782,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A162" s="11" t="s">
         <v>989</v>
       </c>
@@ -16789,7 +16790,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A163" s="11" t="s">
         <v>1288</v>
       </c>
@@ -16797,7 +16798,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A164" s="11" t="s">
         <v>1035</v>
       </c>
@@ -16805,7 +16806,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A165" s="11" t="s">
         <v>1530</v>
       </c>
@@ -16813,7 +16814,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A166" s="11" t="s">
         <v>1155</v>
       </c>
@@ -16821,7 +16822,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A167" s="11" t="s">
         <v>59</v>
       </c>
@@ -16829,7 +16830,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A168" s="11" t="s">
         <v>60</v>
       </c>
@@ -16837,7 +16838,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A169" s="11" t="s">
         <v>61</v>
       </c>
@@ -16845,7 +16846,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A170" s="11" t="s">
         <v>991</v>
       </c>
@@ -16853,7 +16854,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A171" s="11" t="s">
         <v>62</v>
       </c>
@@ -16861,7 +16862,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A172" s="11" t="s">
         <v>686</v>
       </c>
@@ -16877,7 +16878,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A174" s="11" t="s">
         <v>942</v>
       </c>
@@ -16893,7 +16894,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A176" s="11" t="s">
         <v>687</v>
       </c>
@@ -16909,7 +16910,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A178" s="11" t="s">
         <v>67</v>
       </c>
@@ -16917,7 +16918,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A179" s="11" t="s">
         <v>68</v>
       </c>
@@ -16925,7 +16926,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A180" s="11" t="s">
         <v>688</v>
       </c>
@@ -16941,7 +16942,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A182" s="11" t="s">
         <v>503</v>
       </c>
@@ -16949,7 +16950,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A183" s="11" t="s">
         <v>69</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A185" s="11" t="s">
         <v>71</v>
       </c>
@@ -16973,7 +16974,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A186" s="11" t="s">
         <v>1659</v>
       </c>
@@ -16989,7 +16990,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A188" s="11" t="s">
         <v>1558</v>
       </c>
@@ -16997,7 +16998,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A189" s="11" t="s">
         <v>689</v>
       </c>
@@ -17005,7 +17006,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A190" s="11" t="s">
         <v>690</v>
       </c>
@@ -17013,7 +17014,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A191" s="11" t="s">
         <v>1450</v>
       </c>
@@ -17021,7 +17022,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A192" s="11" t="s">
         <v>73</v>
       </c>
@@ -17029,7 +17030,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A193" s="11" t="s">
         <v>74</v>
       </c>
@@ -17037,7 +17038,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A194" s="11" t="s">
         <v>75</v>
       </c>
@@ -17085,7 +17086,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A200" s="11" t="s">
         <v>78</v>
       </c>
@@ -17093,7 +17094,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A201" s="11" t="s">
         <v>79</v>
       </c>
@@ -17101,7 +17102,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A202" s="11" t="s">
         <v>80</v>
       </c>
@@ -17149,7 +17150,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A208" s="11" t="s">
         <v>507</v>
       </c>
@@ -17157,7 +17158,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A209" s="11" t="s">
         <v>794</v>
       </c>
@@ -17165,7 +17166,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A210" s="11" t="s">
         <v>1338</v>
       </c>
@@ -17173,7 +17174,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A211" s="11" t="s">
         <v>1419</v>
       </c>
@@ -17181,7 +17182,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A212" s="11" t="s">
         <v>1305</v>
       </c>
@@ -17189,7 +17190,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A213" s="11" t="s">
         <v>943</v>
       </c>
@@ -17197,7 +17198,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A214" s="11" t="s">
         <v>84</v>
       </c>
@@ -17229,7 +17230,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A218" s="11" t="s">
         <v>1347</v>
       </c>
@@ -17237,7 +17238,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A219" s="11" t="s">
         <v>85</v>
       </c>
@@ -17245,7 +17246,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A220" s="11" t="s">
         <v>1575</v>
       </c>
@@ -17253,7 +17254,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A221" s="11" t="s">
         <v>86</v>
       </c>
@@ -17269,7 +17270,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A223" s="11" t="s">
         <v>1406</v>
       </c>
@@ -17277,7 +17278,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A224" s="11" t="s">
         <v>691</v>
       </c>
@@ -17285,7 +17286,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A225" s="11" t="s">
         <v>1037</v>
       </c>
@@ -17293,7 +17294,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A226" s="11" t="s">
         <v>1579</v>
       </c>
@@ -17301,7 +17302,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A227" s="11" t="s">
         <v>88</v>
       </c>
@@ -17309,7 +17310,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A228" s="11" t="s">
         <v>692</v>
       </c>
@@ -17317,7 +17318,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A229" s="11" t="s">
         <v>992</v>
       </c>
@@ -17325,7 +17326,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A230" s="11" t="s">
         <v>1277</v>
       </c>
@@ -17333,7 +17334,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A231" s="11" t="s">
         <v>89</v>
       </c>
@@ -17341,7 +17342,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A232" s="11" t="s">
         <v>880</v>
       </c>
@@ -17357,7 +17358,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A234" s="11" t="s">
         <v>90</v>
       </c>
@@ -17365,7 +17366,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A235" s="11" t="s">
         <v>1615</v>
       </c>
@@ -17389,7 +17390,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A238" s="11" t="s">
         <v>1217</v>
       </c>
@@ -17397,7 +17398,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A239" s="11" t="s">
         <v>881</v>
       </c>
@@ -17405,7 +17406,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A240" s="11" t="s">
         <v>1175</v>
       </c>
@@ -17429,7 +17430,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A243" s="11" t="s">
         <v>91</v>
       </c>
@@ -17437,7 +17438,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A244" s="11" t="s">
         <v>1193</v>
       </c>
@@ -17477,7 +17478,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A249" s="11" t="s">
         <v>796</v>
       </c>
@@ -17485,7 +17486,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A250" s="11" t="s">
         <v>1243</v>
       </c>
@@ -17501,7 +17502,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A252" s="11" t="s">
         <v>96</v>
       </c>
@@ -17509,7 +17510,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A253" s="11" t="s">
         <v>1505</v>
       </c>
@@ -17533,7 +17534,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A256" s="11" t="s">
         <v>1399</v>
       </c>
@@ -17541,7 +17542,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A257" s="11" t="s">
         <v>1568</v>
       </c>
@@ -17549,7 +17550,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A258" s="11" t="s">
         <v>883</v>
       </c>
@@ -17557,7 +17558,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A259" s="11" t="s">
         <v>797</v>
       </c>
@@ -17565,7 +17566,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A260" s="11" t="s">
         <v>97</v>
       </c>
@@ -17573,7 +17574,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A261" s="11" t="s">
         <v>1224</v>
       </c>
@@ -17589,7 +17590,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A263" s="11" t="s">
         <v>944</v>
       </c>
@@ -17605,7 +17606,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A265" s="11" t="s">
         <v>99</v>
       </c>
@@ -17613,7 +17614,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A266" s="11" t="s">
         <v>100</v>
       </c>
@@ -17629,7 +17630,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A268" s="11" t="s">
         <v>993</v>
       </c>
@@ -17645,7 +17646,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A270" s="11" t="s">
         <v>509</v>
       </c>
@@ -17653,7 +17654,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A271" s="11" t="s">
         <v>798</v>
       </c>
@@ -17669,7 +17670,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A273" s="11" t="s">
         <v>694</v>
       </c>
@@ -17685,7 +17686,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A275" s="11" t="s">
         <v>1537</v>
       </c>
@@ -17693,7 +17694,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A276" s="11" t="s">
         <v>103</v>
       </c>
@@ -17717,7 +17718,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A279" s="11" t="s">
         <v>104</v>
       </c>
@@ -17725,7 +17726,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A280" s="11" t="s">
         <v>884</v>
       </c>
@@ -17749,7 +17750,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A283" s="11" t="s">
         <v>1289</v>
       </c>
@@ -17757,7 +17758,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A284" s="11" t="s">
         <v>105</v>
       </c>
@@ -17765,7 +17766,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A285" s="11" t="s">
         <v>695</v>
       </c>
@@ -17773,7 +17774,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A286" s="11" t="s">
         <v>696</v>
       </c>
@@ -17789,7 +17790,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A288" s="11" t="s">
         <v>512</v>
       </c>
@@ -17797,7 +17798,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A289" s="11" t="s">
         <v>513</v>
       </c>
@@ -17805,7 +17806,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A290" s="11" t="s">
         <v>1506</v>
       </c>
@@ -17821,7 +17822,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A292" s="11" t="s">
         <v>800</v>
       </c>
@@ -17829,7 +17830,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A293" s="11" t="s">
         <v>514</v>
       </c>
@@ -17837,7 +17838,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A294" s="11" t="s">
         <v>106</v>
       </c>
@@ -17853,7 +17854,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A296" s="11" t="s">
         <v>1156</v>
       </c>
@@ -17861,7 +17862,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A297" s="11" t="s">
         <v>107</v>
       </c>
@@ -17877,7 +17878,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A299" s="11" t="s">
         <v>1518</v>
       </c>
@@ -17885,7 +17886,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A300" s="11" t="s">
         <v>1671</v>
       </c>
@@ -17893,7 +17894,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A301" s="11" t="s">
         <v>1244</v>
       </c>
@@ -17901,7 +17902,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A302" s="11" t="s">
         <v>1646</v>
       </c>
@@ -17909,7 +17910,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A303" s="11" t="s">
         <v>1407</v>
       </c>
@@ -17925,7 +17926,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A305" s="11" t="s">
         <v>997</v>
       </c>
@@ -17933,7 +17934,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A306" s="11" t="s">
         <v>1484</v>
       </c>
@@ -17949,7 +17950,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A308" s="11" t="s">
         <v>108</v>
       </c>
@@ -17957,7 +17958,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A309" s="11" t="s">
         <v>698</v>
       </c>
@@ -17973,7 +17974,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A311" s="11" t="s">
         <v>110</v>
       </c>
@@ -17981,7 +17982,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A312" s="11" t="s">
         <v>516</v>
       </c>
@@ -17989,7 +17990,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A313" s="11" t="s">
         <v>946</v>
       </c>
@@ -17997,7 +17998,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A314" s="11" t="s">
         <v>1245</v>
       </c>
@@ -18005,15 +18006,15 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A315" s="29" t="s">
         <v>998</v>
       </c>
-      <c r="B315" s="40" t="s">
+      <c r="B315" s="14" t="s">
         <v>2878</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A316" s="11" t="s">
         <v>801</v>
       </c>
@@ -18037,7 +18038,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="135" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A319" s="11" t="s">
         <v>1472</v>
       </c>
@@ -18053,7 +18054,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A321" s="11" t="s">
         <v>1462</v>
       </c>
@@ -18061,7 +18062,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A322" s="11" t="s">
         <v>802</v>
       </c>
@@ -18069,7 +18070,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A323" s="11" t="s">
         <v>1157</v>
       </c>
@@ -18077,7 +18078,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A324" s="11" t="s">
         <v>517</v>
       </c>
@@ -18085,7 +18086,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A325" s="11" t="s">
         <v>1103</v>
       </c>
@@ -18093,7 +18094,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A326" s="11" t="s">
         <v>114</v>
       </c>
@@ -18101,7 +18102,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A327" s="11" t="s">
         <v>1606</v>
       </c>
@@ -18109,7 +18110,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="135" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A328" s="11" t="s">
         <v>1451</v>
       </c>
@@ -18117,7 +18118,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A329" s="11" t="s">
         <v>519</v>
       </c>
@@ -18125,7 +18126,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A330" s="11" t="s">
         <v>1262</v>
       </c>
@@ -18133,7 +18134,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A331" s="11" t="s">
         <v>699</v>
       </c>
@@ -18141,7 +18142,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="151.9" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A332" s="11" t="s">
         <v>1348</v>
       </c>
@@ -18149,7 +18150,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A333" s="11" t="s">
         <v>520</v>
       </c>
@@ -18157,7 +18158,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A334" s="11" t="s">
         <v>804</v>
       </c>
@@ -18165,7 +18166,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A335" s="11" t="s">
         <v>521</v>
       </c>
@@ -18181,7 +18182,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A337" s="11" t="s">
         <v>1489</v>
       </c>
@@ -18189,7 +18190,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A338" s="11" t="s">
         <v>1065</v>
       </c>
@@ -18197,7 +18198,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A339" s="11" t="s">
         <v>115</v>
       </c>
@@ -18213,7 +18214,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A341" s="11" t="s">
         <v>700</v>
       </c>
@@ -18221,7 +18222,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A342" s="11" t="s">
         <v>1158</v>
       </c>
@@ -18237,7 +18238,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A344" s="11" t="s">
         <v>1710</v>
       </c>
@@ -18245,7 +18246,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A345" s="11" t="s">
         <v>116</v>
       </c>
@@ -18253,7 +18254,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A346" s="11" t="s">
         <v>117</v>
       </c>
@@ -18261,7 +18262,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A347" s="11" t="s">
         <v>701</v>
       </c>
@@ -18269,7 +18270,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A348" s="11" t="s">
         <v>118</v>
       </c>
@@ -18277,7 +18278,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A349" s="11" t="s">
         <v>1104</v>
       </c>
@@ -18301,7 +18302,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A352" s="11" t="s">
         <v>122</v>
       </c>
@@ -18309,7 +18310,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="353" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A353" s="11" t="s">
         <v>522</v>
       </c>
@@ -18317,7 +18318,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="354" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A354" s="11" t="s">
         <v>1608</v>
       </c>
@@ -18333,7 +18334,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A356" s="11" t="s">
         <v>123</v>
       </c>
@@ -18349,7 +18350,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A358" s="11" t="s">
         <v>124</v>
       </c>
@@ -18357,7 +18358,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A359" s="11" t="s">
         <v>805</v>
       </c>
@@ -18365,7 +18366,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="360" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A360" s="11" t="s">
         <v>1679</v>
       </c>
@@ -18373,7 +18374,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="185.65" x14ac:dyDescent="0.6">
+    <row r="361" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A361" s="11" t="s">
         <v>1383</v>
       </c>
@@ -18381,7 +18382,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="362" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A362" s="11" t="s">
         <v>1487</v>
       </c>
@@ -18389,7 +18390,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="363" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A363" s="11" t="s">
         <v>1631</v>
       </c>
@@ -18413,7 +18414,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A366" s="11" t="s">
         <v>523</v>
       </c>
@@ -18421,7 +18422,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="367" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A367" s="11" t="s">
         <v>126</v>
       </c>
@@ -18429,7 +18430,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="368" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A368" s="11" t="s">
         <v>524</v>
       </c>
@@ -18445,7 +18446,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A370" s="11" t="s">
         <v>128</v>
       </c>
@@ -18469,7 +18470,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="373" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A373" s="11" t="s">
         <v>999</v>
       </c>
@@ -18485,7 +18486,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="375" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A375" s="11" t="s">
         <v>1507</v>
       </c>
@@ -18501,7 +18502,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A377" s="11" t="s">
         <v>702</v>
       </c>
@@ -18525,7 +18526,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="380" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A380" s="11" t="s">
         <v>1278</v>
       </c>
@@ -18533,7 +18534,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="381" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A381" s="11" t="s">
         <v>1039</v>
       </c>
@@ -18541,7 +18542,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="382" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A382" s="11" t="s">
         <v>525</v>
       </c>
@@ -18557,7 +18558,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="384" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A384" s="11" t="s">
         <v>3078</v>
       </c>
@@ -18573,7 +18574,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A386" s="11" t="s">
         <v>135</v>
       </c>
@@ -18589,7 +18590,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A388" s="11" t="s">
         <v>1001</v>
       </c>
@@ -18597,7 +18598,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A389" s="11" t="s">
         <v>526</v>
       </c>
@@ -18605,7 +18606,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A390" s="11" t="s">
         <v>806</v>
       </c>
@@ -18613,7 +18614,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="391" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A391" s="11" t="s">
         <v>1400</v>
       </c>
@@ -18621,7 +18622,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="392" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A392" s="11" t="s">
         <v>136</v>
       </c>
@@ -18629,7 +18630,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A393" s="11" t="s">
         <v>886</v>
       </c>
@@ -18637,7 +18638,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A394" s="11" t="s">
         <v>138</v>
       </c>
@@ -18645,7 +18646,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="395" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A395" s="11" t="s">
         <v>1194</v>
       </c>
@@ -18661,7 +18662,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="397" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A397" s="11" t="s">
         <v>1066</v>
       </c>
@@ -18669,7 +18670,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A398" s="11" t="s">
         <v>527</v>
       </c>
@@ -18677,7 +18678,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
+    <row r="399" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A399" s="11" t="s">
         <v>528</v>
       </c>
@@ -18685,7 +18686,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A400" s="11" t="s">
         <v>1177</v>
       </c>
@@ -18693,7 +18694,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="401" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A401" s="11" t="s">
         <v>1663</v>
       </c>
@@ -18701,7 +18702,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="45.4" x14ac:dyDescent="0.6">
+    <row r="402" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A402" s="11" t="s">
         <v>1128</v>
       </c>
@@ -18709,7 +18710,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="403" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A403" s="11" t="s">
         <v>1002</v>
       </c>
@@ -18717,7 +18718,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A404" s="11" t="s">
         <v>140</v>
       </c>
@@ -18725,7 +18726,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A405" s="11" t="s">
         <v>1195</v>
       </c>
@@ -18733,7 +18734,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="406" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A406" s="11" t="s">
         <v>1003</v>
       </c>
@@ -18741,7 +18742,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="407" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A407" s="11" t="s">
         <v>141</v>
       </c>
@@ -18765,7 +18766,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A410" s="11" t="s">
         <v>143</v>
       </c>
@@ -18773,7 +18774,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A411" s="11" t="s">
         <v>145</v>
       </c>
@@ -18781,7 +18782,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A412" s="11" t="s">
         <v>1067</v>
       </c>
@@ -18829,7 +18830,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="418" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A418" s="11" t="s">
         <v>703</v>
       </c>
@@ -18837,7 +18838,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A419" s="11" t="s">
         <v>1196</v>
       </c>
@@ -18861,7 +18862,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A422" s="11" t="s">
         <v>1678</v>
       </c>
@@ -18885,7 +18886,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A425" s="11" t="s">
         <v>147</v>
       </c>
@@ -18901,7 +18902,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="427" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A427" s="11" t="s">
         <v>1263</v>
       </c>
@@ -18917,7 +18918,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="429" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A429" s="11" t="s">
         <v>1040</v>
       </c>
@@ -18925,7 +18926,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="430" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A430" s="11" t="s">
         <v>1705</v>
       </c>
@@ -18933,7 +18934,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="431" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A431" s="11" t="s">
         <v>149</v>
       </c>
@@ -18941,7 +18942,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A432" s="11" t="s">
         <v>1333</v>
       </c>
@@ -18949,7 +18950,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="433" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A433" s="11" t="s">
         <v>151</v>
       </c>
@@ -18957,7 +18958,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="434" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A434" s="11" t="s">
         <v>1004</v>
       </c>
@@ -18973,7 +18974,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="436" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A436" s="11" t="s">
         <v>152</v>
       </c>
@@ -18989,7 +18990,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="438" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A438" s="11" t="s">
         <v>1106</v>
       </c>
@@ -19013,7 +19014,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A441" s="11" t="s">
         <v>1541</v>
       </c>
@@ -19053,7 +19054,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A446" s="11" t="s">
         <v>533</v>
       </c>
@@ -19061,7 +19062,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A447" s="11" t="s">
         <v>534</v>
       </c>
@@ -19085,7 +19086,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A450" s="11" t="s">
         <v>155</v>
       </c>
@@ -19093,7 +19094,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="451" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A451" s="11" t="s">
         <v>810</v>
       </c>
@@ -19101,7 +19102,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="452" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A452" s="11" t="s">
         <v>535</v>
       </c>
@@ -19109,7 +19110,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="453" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A453" s="11" t="s">
         <v>1661</v>
       </c>
@@ -19125,7 +19126,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="455" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A455" s="11" t="s">
         <v>536</v>
       </c>
@@ -19133,7 +19134,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A456" s="11" t="s">
         <v>156</v>
       </c>
@@ -19141,7 +19142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A457" s="11" t="s">
         <v>538</v>
       </c>
@@ -19157,7 +19158,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="459" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A459" s="11" t="s">
         <v>1306</v>
       </c>
@@ -19165,7 +19166,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="460" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A460" s="11" t="s">
         <v>157</v>
       </c>
@@ -19173,7 +19174,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="461" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A461" s="11" t="s">
         <v>705</v>
       </c>
@@ -19181,7 +19182,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="462" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A462" s="11" t="s">
         <v>158</v>
       </c>
@@ -19189,7 +19190,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A463" s="11" t="s">
         <v>1006</v>
       </c>
@@ -19197,7 +19198,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A464" s="11" t="s">
         <v>952</v>
       </c>
@@ -19205,7 +19206,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="465" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A465" s="11" t="s">
         <v>159</v>
       </c>
@@ -19221,7 +19222,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="467" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A467" s="11" t="s">
         <v>1621</v>
       </c>
@@ -19229,7 +19230,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="468" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A468" s="11" t="s">
         <v>161</v>
       </c>
@@ -19237,7 +19238,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="469" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A469" s="11" t="s">
         <v>1641</v>
       </c>
@@ -19245,7 +19246,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="470" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A470" s="11" t="s">
         <v>1007</v>
       </c>
@@ -19253,7 +19254,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="471" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A471" s="11" t="s">
         <v>1533</v>
       </c>
@@ -19269,7 +19270,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="473" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A473" s="11" t="s">
         <v>1401</v>
       </c>
@@ -19285,7 +19286,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="475" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A475" s="11" t="s">
         <v>1041</v>
       </c>
@@ -19309,7 +19310,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="478" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A478" s="11" t="s">
         <v>3049</v>
       </c>
@@ -19317,7 +19318,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="479" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A479" s="11" t="s">
         <v>541</v>
       </c>
@@ -19333,7 +19334,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="481" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A481" s="11" t="s">
         <v>953</v>
       </c>
@@ -19341,7 +19342,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="482" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A482" s="11" t="s">
         <v>1129</v>
       </c>
@@ -19349,7 +19350,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A483" s="11" t="s">
         <v>1446</v>
       </c>
@@ -19357,7 +19358,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A484" s="11" t="s">
         <v>1539</v>
       </c>
@@ -19373,7 +19374,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="486" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A486" s="11" t="s">
         <v>162</v>
       </c>
@@ -19397,7 +19398,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="489" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A489" s="11" t="s">
         <v>1068</v>
       </c>
@@ -19405,7 +19406,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="490" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A490" s="11" t="s">
         <v>164</v>
       </c>
@@ -19413,7 +19414,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="491" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A491" s="11" t="s">
         <v>811</v>
       </c>
@@ -19421,7 +19422,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="492" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
       <c r="A492" s="11" t="s">
         <v>1590</v>
       </c>
@@ -19429,7 +19430,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="493" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A493" s="27" t="s">
         <v>813</v>
       </c>
@@ -19445,7 +19446,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="495" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A495" s="27" t="s">
         <v>542</v>
       </c>
@@ -19453,7 +19454,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="496" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A496" s="27" t="s">
         <v>1545</v>
       </c>
@@ -19477,7 +19478,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="499" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A499" s="27" t="s">
         <v>708</v>
       </c>
@@ -19501,7 +19502,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="502" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A502" s="27" t="s">
         <v>543</v>
       </c>
@@ -19517,7 +19518,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="504" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A504" s="27" t="s">
         <v>1009</v>
       </c>
@@ -19533,7 +19534,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="506" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A506" s="27" t="s">
         <v>1070</v>
       </c>
@@ -19541,7 +19542,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A507" s="27" t="s">
         <v>1131</v>
       </c>
@@ -19549,7 +19550,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A508" s="27" t="s">
         <v>167</v>
       </c>
@@ -19557,7 +19558,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="509" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A509" s="27" t="s">
         <v>1384</v>
       </c>
@@ -19565,7 +19566,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="510" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A510" s="27" t="s">
         <v>168</v>
       </c>
@@ -19573,7 +19574,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="511" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A511" s="27" t="s">
         <v>711</v>
       </c>
@@ -19589,7 +19590,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="513" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A513" s="27" t="s">
         <v>1279</v>
       </c>
@@ -19597,7 +19598,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="514" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A514" s="27" t="s">
         <v>814</v>
       </c>
@@ -19613,7 +19614,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A516" s="27" t="s">
         <v>1956</v>
       </c>
@@ -19621,7 +19622,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A517" s="27" t="s">
         <v>1682</v>
       </c>
@@ -19629,7 +19630,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="518" spans="1:2" ht="48" x14ac:dyDescent="0.6">
       <c r="A518" s="27" t="s">
         <v>1265</v>
       </c>
@@ -19637,7 +19638,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="519" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A519" s="27" t="s">
         <v>171</v>
       </c>
@@ -19661,7 +19662,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="522" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A522" s="27" t="s">
         <v>1292</v>
       </c>
@@ -19669,7 +19670,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="523" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A523" s="27" t="s">
         <v>1198</v>
       </c>
@@ -19677,7 +19678,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A524" s="27" t="s">
         <v>1521</v>
       </c>
@@ -19685,7 +19686,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="525" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A525" s="27" t="s">
         <v>546</v>
       </c>
@@ -19693,7 +19694,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A526" s="27" t="s">
         <v>548</v>
       </c>
@@ -19717,7 +19718,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A529" s="27" t="s">
         <v>1504</v>
       </c>
@@ -19725,7 +19726,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A530" s="27" t="s">
         <v>1266</v>
       </c>
@@ -19765,7 +19766,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="535" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A535" s="27" t="s">
         <v>549</v>
       </c>
@@ -19773,7 +19774,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="536" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="536" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A536" s="27" t="s">
         <v>1385</v>
       </c>
@@ -19789,7 +19790,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="538" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A538" s="27" t="s">
         <v>1652</v>
       </c>
@@ -19797,7 +19798,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="539" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A539" s="27" t="s">
         <v>176</v>
       </c>
@@ -19805,7 +19806,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="540" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A540" s="27" t="s">
         <v>1355</v>
       </c>
@@ -19821,7 +19822,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="542" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A542" s="27" t="s">
         <v>1267</v>
       </c>
@@ -19829,7 +19830,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="543" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A543" s="27" t="s">
         <v>815</v>
       </c>
@@ -19837,7 +19838,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="544" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A544" s="27" t="s">
         <v>888</v>
       </c>
@@ -19845,7 +19846,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="545" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A545" s="27" t="s">
         <v>1633</v>
       </c>
@@ -19869,7 +19870,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="548" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A548" s="27" t="s">
         <v>1132</v>
       </c>
@@ -19877,7 +19878,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="549" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A549" s="27" t="s">
         <v>1269</v>
       </c>
@@ -19901,7 +19902,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A552" s="27" t="s">
         <v>550</v>
       </c>
@@ -19909,7 +19910,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A553" s="27" t="s">
         <v>180</v>
       </c>
@@ -19917,7 +19918,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A554" s="27" t="s">
         <v>181</v>
       </c>
@@ -19933,7 +19934,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A556" s="27" t="s">
         <v>551</v>
       </c>
@@ -19949,7 +19950,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="558" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A558" s="27" t="s">
         <v>712</v>
       </c>
@@ -19965,7 +19966,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="560" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A560" s="27" t="s">
         <v>817</v>
       </c>
@@ -19989,7 +19990,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="563" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A563" s="27" t="s">
         <v>1654</v>
       </c>
@@ -19997,7 +19998,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="564" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A564" s="27" t="s">
         <v>714</v>
       </c>
@@ -20005,7 +20006,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="565" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A565" s="27" t="s">
         <v>1379</v>
       </c>
@@ -20021,7 +20022,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="567" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A567" s="27" t="s">
         <v>1248</v>
       </c>
@@ -20029,7 +20030,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A568" s="27" t="s">
         <v>186</v>
       </c>
@@ -20045,7 +20046,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A570" s="27" t="s">
         <v>1536</v>
       </c>
@@ -20061,7 +20062,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="572" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A572" s="27" t="s">
         <v>187</v>
       </c>
@@ -20069,7 +20070,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A573" s="27" t="s">
         <v>1997</v>
       </c>
@@ -20093,7 +20094,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="576" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A576" s="27" t="s">
         <v>1159</v>
       </c>
@@ -20101,7 +20102,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A577" s="27" t="s">
         <v>554</v>
       </c>
@@ -20117,7 +20118,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="579" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A579" s="27" t="s">
         <v>555</v>
       </c>
@@ -20125,7 +20126,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="580" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A580" s="27" t="s">
         <v>1349</v>
       </c>
@@ -20133,7 +20134,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="581" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A581" s="27" t="s">
         <v>189</v>
       </c>
@@ -20141,7 +20142,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="582" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A582" s="27" t="s">
         <v>1011</v>
       </c>
@@ -20157,7 +20158,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="584" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A584" s="27" t="s">
         <v>956</v>
       </c>
@@ -20173,7 +20174,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="586" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A586" s="27" t="s">
         <v>191</v>
       </c>
@@ -20189,7 +20190,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="588" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A588" s="27" t="s">
         <v>1134</v>
       </c>
@@ -20213,7 +20214,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="591" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A591" s="27" t="s">
         <v>715</v>
       </c>
@@ -20221,7 +20222,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="592" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A592" s="27" t="s">
         <v>1201</v>
       </c>
@@ -20229,7 +20230,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A593" s="27" t="s">
         <v>195</v>
       </c>
@@ -20253,7 +20254,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="596" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A596" s="27" t="s">
         <v>716</v>
       </c>
@@ -20261,7 +20262,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="597" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A597" s="27" t="s">
         <v>556</v>
       </c>
@@ -20277,7 +20278,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="599" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="599" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A599" s="27" t="s">
         <v>3047</v>
       </c>
@@ -20285,7 +20286,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A600" s="27" t="s">
         <v>197</v>
       </c>
@@ -20293,7 +20294,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="601" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A601" s="27" t="s">
         <v>1135</v>
       </c>
@@ -20309,7 +20310,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="603" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A603" s="27" t="s">
         <v>717</v>
       </c>
@@ -20333,7 +20334,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="606" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A606" s="27" t="s">
         <v>822</v>
       </c>
@@ -20341,7 +20342,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="607" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A607" s="27" t="s">
         <v>199</v>
       </c>
@@ -20349,7 +20350,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="608" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A608" s="27" t="s">
         <v>200</v>
       </c>
@@ -20357,7 +20358,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="609" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A609" s="27" t="s">
         <v>1350</v>
       </c>
@@ -20365,7 +20366,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="610" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A610" s="27" t="s">
         <v>718</v>
       </c>
@@ -20373,7 +20374,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="611" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A611" s="27" t="s">
         <v>201</v>
       </c>
@@ -20389,7 +20390,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="613" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A613" s="27" t="s">
         <v>1443</v>
       </c>
@@ -20397,7 +20398,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="614" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A614" s="27" t="s">
         <v>1453</v>
       </c>
@@ -20405,7 +20406,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="615" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A615" s="27" t="s">
         <v>1522</v>
       </c>
@@ -20457,7 +20458,7 @@
       <c r="A621" s="27" t="s">
         <v>560</v>
       </c>
-      <c r="B621" s="39" t="s">
+      <c r="B621" s="34" t="s">
         <v>2902</v>
       </c>
     </row>
@@ -20473,7 +20474,7 @@
       <c r="A623" s="27" t="s">
         <v>823</v>
       </c>
-      <c r="B623" s="39" t="s">
+      <c r="B623" s="34" t="s">
         <v>2036</v>
       </c>
     </row>
@@ -20481,7 +20482,7 @@
       <c r="A624" s="27" t="s">
         <v>1042</v>
       </c>
-      <c r="B624" s="39" t="s">
+      <c r="B624" s="34" t="s">
         <v>2903</v>
       </c>
     </row>
@@ -20489,23 +20490,23 @@
       <c r="A625" s="27" t="s">
         <v>1408</v>
       </c>
-      <c r="B625" s="39" t="s">
+      <c r="B625" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="626" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A626" s="27" t="s">
         <v>1316</v>
       </c>
-      <c r="B626" s="39" t="s">
+      <c r="B626" s="34" t="s">
         <v>2934</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="627" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A627" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B627" s="39" t="s">
+      <c r="B627" s="34" t="s">
         <v>1888</v>
       </c>
     </row>
@@ -20521,7 +20522,7 @@
       <c r="A629" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B629" s="39" t="s">
+      <c r="B629" s="34" t="s">
         <v>1890</v>
       </c>
     </row>
@@ -20529,19 +20530,19 @@
       <c r="A630" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="B630" s="39" t="s">
+      <c r="B630" s="34" t="s">
         <v>2904</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="631" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A631" s="27" t="s">
         <v>1043</v>
       </c>
-      <c r="B631" s="39" t="s">
+      <c r="B631" s="34" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="632" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A632" s="27" t="s">
         <v>209</v>
       </c>
@@ -20557,7 +20558,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="634" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A634" s="27" t="s">
         <v>957</v>
       </c>
@@ -20589,7 +20590,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="638" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="638" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A638" s="28" t="s">
         <v>1478</v>
       </c>
@@ -20605,7 +20606,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="640" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="640" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A640" s="28" t="s">
         <v>210</v>
       </c>
@@ -20625,7 +20626,7 @@
       <c r="A642" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B642" s="40" t="s">
+      <c r="B642" s="14" t="s">
         <v>2055</v>
       </c>
     </row>
@@ -20645,7 +20646,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="645" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A645" s="28" t="s">
         <v>1625</v>
       </c>
@@ -20669,15 +20670,15 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="648" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A648" s="28" t="s">
         <v>1294</v>
       </c>
-      <c r="B648" s="40" t="s">
+      <c r="B648" s="14" t="s">
         <v>2384</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="649" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A649" s="28" t="s">
         <v>212</v>
       </c>
@@ -20689,11 +20690,11 @@
       <c r="A650" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="B650" s="40" t="s">
+      <c r="B650" s="14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="651" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A651" s="28" t="s">
         <v>215</v>
       </c>
@@ -20701,15 +20702,15 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="652" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="652" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A652" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B652" s="40" t="s">
+      <c r="B652" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="653" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A653" s="28" t="s">
         <v>828</v>
       </c>
@@ -20733,7 +20734,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="656" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A656" s="28" t="s">
         <v>719</v>
       </c>
@@ -20749,7 +20750,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="658" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A658" s="28" t="s">
         <v>562</v>
       </c>
@@ -20765,7 +20766,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="660" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A660" s="28" t="s">
         <v>1351</v>
       </c>
@@ -20785,11 +20786,11 @@
       <c r="A662" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B662" s="40" t="s">
+      <c r="B662" s="14" t="s">
         <v>1904</v>
       </c>
     </row>
-    <row r="663" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A663" s="28" t="s">
         <v>1658</v>
       </c>
@@ -20805,7 +20806,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="665" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A665" s="11" t="s">
         <v>1685</v>
       </c>
@@ -20829,7 +20830,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="668" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A668" s="28" t="s">
         <v>221</v>
       </c>
@@ -20837,7 +20838,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="669" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="669" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A669" s="28" t="s">
         <v>222</v>
       </c>
@@ -20853,7 +20854,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="671" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A671" s="28" t="s">
         <v>223</v>
       </c>
@@ -20873,7 +20874,7 @@
       <c r="A673" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B673" s="39" t="s">
+      <c r="B673" s="34" t="s">
         <v>2382</v>
       </c>
     </row>
@@ -20881,11 +20882,11 @@
       <c r="A674" s="28" t="s">
         <v>1360</v>
       </c>
-      <c r="B674" s="39" t="s">
+      <c r="B674" s="34" t="s">
         <v>2959</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="675" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A675" s="28" t="s">
         <v>225</v>
       </c>
@@ -20897,11 +20898,11 @@
       <c r="A676" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="B676" s="39" t="s">
+      <c r="B676" s="34" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="677" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="677" spans="1:2" ht="45.4" x14ac:dyDescent="0.6">
       <c r="A677" s="28" t="s">
         <v>1664</v>
       </c>
@@ -20917,7 +20918,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="679" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A679" s="28" t="s">
         <v>1444</v>
       </c>
@@ -20941,7 +20942,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="682" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A682" s="28" t="s">
         <v>959</v>
       </c>
@@ -20949,7 +20950,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="683" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A683" s="28" t="s">
         <v>1073</v>
       </c>
@@ -20957,7 +20958,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="684" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A684" s="28" t="s">
         <v>1524</v>
       </c>
@@ -20965,7 +20966,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="685" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A685" s="28" t="s">
         <v>228</v>
       </c>
@@ -20977,11 +20978,11 @@
       <c r="A686" s="28" t="s">
         <v>1626</v>
       </c>
-      <c r="B686" s="39" t="s">
+      <c r="B686" s="34" t="s">
         <v>2386</v>
       </c>
     </row>
-    <row r="687" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="687" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A687" s="28" t="s">
         <v>1202</v>
       </c>
@@ -20989,7 +20990,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="688" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A688" s="28" t="s">
         <v>1387</v>
       </c>
@@ -20997,7 +20998,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="689" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A689" s="28" t="s">
         <v>1108</v>
       </c>
@@ -21005,7 +21006,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="690" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A690" s="28" t="s">
         <v>1429</v>
       </c>
@@ -21013,19 +21014,19 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="691" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A691" s="28" t="s">
         <v>1074</v>
       </c>
-      <c r="B691" s="39" t="s">
+      <c r="B691" s="34" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="692" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A692" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="B692" s="40" t="s">
+      <c r="B692" s="14" t="s">
         <v>1915</v>
       </c>
     </row>
@@ -21033,7 +21034,7 @@
       <c r="A693" s="28" t="s">
         <v>1325</v>
       </c>
-      <c r="B693" s="39" t="s">
+      <c r="B693" s="34" t="s">
         <v>1916</v>
       </c>
     </row>
@@ -21041,7 +21042,7 @@
       <c r="A694" s="28" t="s">
         <v>1249</v>
       </c>
-      <c r="B694" s="39" t="s">
+      <c r="B694" s="34" t="s">
         <v>1917</v>
       </c>
     </row>
@@ -21053,11 +21054,11 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="696" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A696" s="28" t="s">
         <v>960</v>
       </c>
-      <c r="B696" s="39" t="s">
+      <c r="B696" s="34" t="s">
         <v>1894</v>
       </c>
     </row>
@@ -21069,7 +21070,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="698" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A698" s="28" t="s">
         <v>720</v>
       </c>
@@ -21077,15 +21078,15 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="699" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A699" s="28" t="s">
         <v>1519</v>
       </c>
-      <c r="B699" s="39" t="s">
+      <c r="B699" s="34" t="s">
         <v>2960</v>
       </c>
     </row>
-    <row r="700" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="700" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A700" s="28" t="s">
         <v>1483</v>
       </c>
@@ -21101,7 +21102,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="702" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A702" s="28" t="s">
         <v>1179</v>
       </c>
@@ -21117,7 +21118,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="704" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="704" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A704" s="28" t="s">
         <v>961</v>
       </c>
@@ -21125,7 +21126,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="705" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A705" s="28" t="s">
         <v>566</v>
       </c>
@@ -21133,7 +21134,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="706" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A706" s="28" t="s">
         <v>231</v>
       </c>
@@ -21141,15 +21142,15 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="707" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A707" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="B707" s="39" t="s">
+      <c r="B707" s="34" t="s">
         <v>1926</v>
       </c>
     </row>
-    <row r="708" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A708" s="28" t="s">
         <v>233</v>
       </c>
@@ -21161,7 +21162,7 @@
       <c r="A709" s="28" t="s">
         <v>721</v>
       </c>
-      <c r="B709" s="39" t="s">
+      <c r="B709" s="34" t="s">
         <v>1928</v>
       </c>
     </row>
@@ -21169,11 +21170,11 @@
       <c r="A710" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="B710" s="39" t="s">
+      <c r="B710" s="34" t="s">
         <v>1929</v>
       </c>
     </row>
-    <row r="711" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A711" s="28" t="s">
         <v>235</v>
       </c>
@@ -21181,11 +21182,11 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="712" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A712" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="B712" s="39" t="s">
+      <c r="B712" s="34" t="s">
         <v>237</v>
       </c>
     </row>
@@ -21197,31 +21198,31 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="714" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="714" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A714" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B714" s="39" t="s">
+      <c r="B714" s="34" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="715" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A715" s="28" t="s">
         <v>1109</v>
       </c>
-      <c r="B715" s="39" t="s">
+      <c r="B715" s="34" t="s">
         <v>1932</v>
       </c>
     </row>
-    <row r="716" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="716" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A716" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="B716" s="39" t="s">
+      <c r="B716" s="34" t="s">
         <v>1933</v>
       </c>
     </row>
-    <row r="717" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A717" s="28" t="s">
         <v>242</v>
       </c>
@@ -21229,7 +21230,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="718" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A718" s="28" t="s">
         <v>1203</v>
       </c>
@@ -21257,11 +21258,11 @@
       <c r="A721" s="28" t="s">
         <v>1012</v>
       </c>
-      <c r="B721" s="39" t="s">
+      <c r="B721" s="34" t="s">
         <v>2852</v>
       </c>
     </row>
-    <row r="722" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="722" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A722" s="28" t="s">
         <v>243</v>
       </c>
@@ -21269,7 +21270,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="723" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="723" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A723" s="28" t="s">
         <v>245</v>
       </c>
@@ -21281,7 +21282,7 @@
       <c r="A724" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="B724" s="39" t="s">
+      <c r="B724" s="34" t="s">
         <v>1937</v>
       </c>
     </row>
@@ -21309,7 +21310,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="728" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A728" s="28" t="s">
         <v>1307</v>
       </c>
@@ -21325,15 +21326,15 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="730" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A730" s="28" t="s">
         <v>1180</v>
       </c>
-      <c r="B730" s="39" t="s">
+      <c r="B730" s="34" t="s">
         <v>1940</v>
       </c>
     </row>
-    <row r="731" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A731" s="28" t="s">
         <v>1110</v>
       </c>
@@ -21341,7 +21342,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="732" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A732" s="28" t="s">
         <v>722</v>
       </c>
@@ -21349,7 +21350,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="733" spans="1:2" ht="42.75" x14ac:dyDescent="0.6">
       <c r="A733" s="11" t="s">
         <v>250</v>
       </c>
@@ -21357,15 +21358,15 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="734" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A734" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B734" s="38" t="s">
+      <c r="B734" s="33" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="735" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A735" s="11" t="s">
         <v>569</v>
       </c>
@@ -21373,7 +21374,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="736" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="736" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A736" s="11" t="s">
         <v>1181</v>
       </c>
@@ -21389,7 +21390,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="738" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A738" s="11" t="s">
         <v>1556</v>
       </c>
@@ -21405,7 +21406,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="740" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A740" s="11" t="s">
         <v>723</v>
       </c>
@@ -21421,7 +21422,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="742" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A742" s="11" t="s">
         <v>255</v>
       </c>
@@ -21437,19 +21438,19 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="744" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A744" s="11" t="s">
         <v>1227</v>
       </c>
-      <c r="B744" s="40" t="s">
+      <c r="B744" s="14" t="s">
         <v>2916</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="745" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A745" s="11" t="s">
         <v>1317</v>
       </c>
-      <c r="B745" s="40" t="s">
+      <c r="B745" s="14" t="s">
         <v>2917</v>
       </c>
     </row>
@@ -21457,7 +21458,7 @@
       <c r="A746" s="11" t="s">
         <v>1075</v>
       </c>
-      <c r="B746" s="40" t="s">
+      <c r="B746" s="14" t="s">
         <v>1787</v>
       </c>
     </row>
@@ -21465,7 +21466,7 @@
       <c r="A747" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="B747" s="40" t="s">
+      <c r="B747" s="14" t="s">
         <v>1788</v>
       </c>
     </row>
@@ -21477,7 +21478,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="749" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A749" s="11" t="s">
         <v>570</v>
       </c>
@@ -21485,15 +21486,15 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="750" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A750" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B750" s="40" t="s">
+      <c r="B750" s="14" t="s">
         <v>2918</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="751" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A751" s="11" t="s">
         <v>724</v>
       </c>
@@ -21501,7 +21502,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="752" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
       <c r="A752" s="11" t="s">
         <v>725</v>
       </c>
@@ -21509,7 +21510,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="753" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
       <c r="A753" s="11" t="s">
         <v>1573</v>
       </c>
@@ -21525,7 +21526,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="755" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="755" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A755" s="11" t="s">
         <v>1562</v>
       </c>
@@ -21533,7 +21534,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="756" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="756" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A756" s="11" t="s">
         <v>1205</v>
       </c>
@@ -21541,7 +21542,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="757" spans="1:2" ht="45.4" x14ac:dyDescent="0.6">
       <c r="A757" s="11" t="s">
         <v>1076</v>
       </c>
@@ -21549,7 +21550,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="758" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A758" s="11" t="s">
         <v>894</v>
       </c>
@@ -21565,7 +21566,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="760" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="760" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A760" s="11" t="s">
         <v>1662</v>
       </c>
@@ -21573,7 +21574,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="761" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="761" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A761" s="11" t="s">
         <v>830</v>
       </c>
@@ -21581,7 +21582,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="762" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="762" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A762" s="11" t="s">
         <v>831</v>
       </c>
@@ -21589,15 +21590,15 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="763" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="763" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A763" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B763" s="40" t="s">
+      <c r="B763" s="14" t="s">
         <v>1801</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="764" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A764" s="11" t="s">
         <v>1634</v>
       </c>
@@ -21621,7 +21622,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="767" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A767" s="11" t="s">
         <v>259</v>
       </c>
@@ -21629,7 +21630,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="768" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A768" s="11" t="s">
         <v>1595</v>
       </c>
@@ -21645,7 +21646,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="770" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A770" s="11" t="s">
         <v>260</v>
       </c>
@@ -21653,7 +21654,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="771" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A771" s="11" t="s">
         <v>832</v>
       </c>
@@ -21669,15 +21670,15 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="773" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A773" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="B773" s="40" t="s">
+      <c r="B773" s="14" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="774" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A774" s="11" t="s">
         <v>262</v>
       </c>
@@ -21685,7 +21686,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="775" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A775" s="11" t="s">
         <v>263</v>
       </c>
@@ -21693,7 +21694,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="776" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="776" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A776" s="11" t="s">
         <v>963</v>
       </c>
@@ -21701,15 +21702,15 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="777" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A777" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="B777" s="38" t="s">
+      <c r="B777" s="33" t="s">
         <v>2964</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="778" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A778" s="11" t="s">
         <v>2921</v>
       </c>
@@ -21717,7 +21718,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="779" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A779" s="11" t="s">
         <v>1492</v>
       </c>
@@ -21725,15 +21726,15 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="780" spans="1:2" ht="28.5" x14ac:dyDescent="0.6">
       <c r="A780" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="B780" s="38" t="s">
+      <c r="B780" s="33" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="781" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A781" s="11" t="s">
         <v>727</v>
       </c>
@@ -21741,7 +21742,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="782" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A782" s="11" t="s">
         <v>1352</v>
       </c>
@@ -21749,7 +21750,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="783" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="783" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A783" s="11" t="s">
         <v>1250</v>
       </c>
@@ -21757,7 +21758,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="784" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="784" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A784" s="11" t="s">
         <v>264</v>
       </c>
@@ -21765,7 +21766,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="785" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="785" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A785" s="11" t="s">
         <v>265</v>
       </c>
@@ -21773,7 +21774,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="786" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A786" s="11" t="s">
         <v>1389</v>
       </c>
@@ -21781,7 +21782,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="787" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="787" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A787" s="11" t="s">
         <v>266</v>
       </c>
@@ -21789,7 +21790,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="788" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A788" s="11" t="s">
         <v>1295</v>
       </c>
@@ -21797,7 +21798,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="789" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
+    <row r="789" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A789" s="11" t="s">
         <v>1442</v>
       </c>
@@ -21813,7 +21814,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="791" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A791" s="11" t="s">
         <v>895</v>
       </c>
@@ -21821,7 +21822,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="792" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="792" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A792" s="11" t="s">
         <v>268</v>
       </c>
@@ -21845,7 +21846,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="795" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A795" s="11" t="s">
         <v>833</v>
       </c>
@@ -21853,7 +21854,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="796" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A796" s="11" t="s">
         <v>574</v>
       </c>
@@ -21869,7 +21870,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="798" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A798" s="11" t="s">
         <v>271</v>
       </c>
@@ -21877,7 +21878,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="799" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A799" s="11" t="s">
         <v>272</v>
       </c>
@@ -21893,15 +21894,15 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="801" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="801" spans="1:2" ht="42.75" x14ac:dyDescent="0.6">
       <c r="A801" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="B801" s="38" t="s">
+      <c r="B801" s="33" t="s">
         <v>1832</v>
       </c>
     </row>
-    <row r="802" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="802" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A802" s="11" t="s">
         <v>964</v>
       </c>
@@ -21909,15 +21910,15 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="803" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
+    <row r="803" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A803" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="B803" s="40" t="s">
+      <c r="B803" s="14" t="s">
         <v>2924</v>
       </c>
     </row>
-    <row r="804" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="804" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A804" s="11" t="s">
         <v>273</v>
       </c>
@@ -21925,7 +21926,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="805" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A805" s="11" t="s">
         <v>577</v>
       </c>
@@ -21933,7 +21934,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="806" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="806" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A806" s="11" t="s">
         <v>1614</v>
       </c>
@@ -21941,7 +21942,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="807" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="807" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A807" s="11" t="s">
         <v>1077</v>
       </c>
@@ -21949,7 +21950,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="808" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A808" s="11" t="s">
         <v>1228</v>
       </c>
@@ -21965,7 +21966,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="810" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A810" s="11" t="s">
         <v>578</v>
       </c>
@@ -21973,7 +21974,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="811" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A811" s="11" t="s">
         <v>579</v>
       </c>
@@ -21981,7 +21982,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="812" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="812" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A812" s="11" t="s">
         <v>274</v>
       </c>
@@ -21989,7 +21990,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="813" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="813" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A813" s="11" t="s">
         <v>580</v>
       </c>
@@ -21997,7 +21998,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="814" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A814" s="11" t="s">
         <v>581</v>
       </c>
@@ -22005,7 +22006,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="815" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="815" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A815" s="11" t="s">
         <v>1535</v>
       </c>
@@ -22013,7 +22014,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="816" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A816" s="11" t="s">
         <v>1494</v>
       </c>
@@ -22021,7 +22022,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="817" spans="1:2" ht="202.5" x14ac:dyDescent="0.6">
       <c r="A817" s="11" t="s">
         <v>1627</v>
       </c>
@@ -22029,7 +22030,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="818" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="818" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A818" s="11" t="s">
         <v>1281</v>
       </c>
@@ -22037,7 +22038,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="819" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A819" s="11" t="s">
         <v>1430</v>
       </c>
@@ -22045,7 +22046,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="820" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="820" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A820" s="11" t="s">
         <v>1431</v>
       </c>
@@ -22053,7 +22054,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="821" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A821" s="11" t="s">
         <v>1544</v>
       </c>
@@ -22061,7 +22062,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="822" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="822" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A822" s="11" t="s">
         <v>1136</v>
       </c>
@@ -22069,7 +22070,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="823" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="823" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
       <c r="A823" s="11" t="s">
         <v>1362</v>
       </c>
@@ -22077,7 +22078,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="824" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="824" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A824" s="11" t="s">
         <v>1013</v>
       </c>
@@ -22085,7 +22086,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="825" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A825" s="11" t="s">
         <v>1526</v>
       </c>
@@ -22101,7 +22102,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="827" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A827" s="11" t="s">
         <v>897</v>
       </c>
@@ -22109,7 +22110,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="828" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A828" s="11" t="s">
         <v>275</v>
       </c>
@@ -22129,11 +22130,11 @@
       <c r="A830" s="11" t="s">
         <v>898</v>
       </c>
-      <c r="B830" s="40" t="s">
+      <c r="B830" s="14" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="831" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A831" s="11" t="s">
         <v>277</v>
       </c>
@@ -22157,11 +22158,11 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="834" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="834" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A834" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="B834" s="40" t="s">
+      <c r="B834" s="14" t="s">
         <v>2967</v>
       </c>
     </row>
@@ -22173,7 +22174,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="836" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="836" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A836" s="11" t="s">
         <v>1650</v>
       </c>
@@ -22181,7 +22182,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="837" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="837" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A837" s="11" t="s">
         <v>1112</v>
       </c>
@@ -22189,7 +22190,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="838" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A838" s="11" t="s">
         <v>280</v>
       </c>
@@ -22197,7 +22198,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="839" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A839" s="11" t="s">
         <v>583</v>
       </c>
@@ -22205,7 +22206,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="840" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A840" s="11" t="s">
         <v>584</v>
       </c>
@@ -22221,15 +22222,15 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="842" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="842" spans="1:2" ht="168.75" x14ac:dyDescent="0.6">
       <c r="A842" s="11" t="s">
         <v>1542</v>
       </c>
-      <c r="B842" s="40" t="s">
+      <c r="B842" s="14" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="843" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A843" s="11" t="s">
         <v>1044</v>
       </c>
@@ -22237,7 +22238,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="844" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A844" s="11" t="s">
         <v>1113</v>
       </c>
@@ -22245,23 +22246,23 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="845" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A845" s="11" t="s">
         <v>1577</v>
       </c>
-      <c r="B845" s="40" t="s">
+      <c r="B845" s="14" t="s">
         <v>1868</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="846" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A846" s="11" t="s">
         <v>1251</v>
       </c>
-      <c r="B846" s="40" t="s">
+      <c r="B846" s="14" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="847" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="847" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A847" s="11" t="s">
         <v>585</v>
       </c>
@@ -22269,7 +22270,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="848" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A848" s="11" t="s">
         <v>1014</v>
       </c>
@@ -22277,7 +22278,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="849" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A849" s="11" t="s">
         <v>1318</v>
       </c>
@@ -22293,19 +22294,19 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="851" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="851" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A851" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B851" s="40" t="s">
+      <c r="B851" s="14" t="s">
         <v>2392</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="852" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A852" s="11" t="s">
         <v>1421</v>
       </c>
-      <c r="B852" s="40" t="s">
+      <c r="B852" s="14" t="s">
         <v>3080</v>
       </c>
     </row>
@@ -22317,7 +22318,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="854" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A854" s="11" t="s">
         <v>730</v>
       </c>
@@ -22341,7 +22342,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="857" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A857" s="11" t="s">
         <v>1340</v>
       </c>
@@ -22349,7 +22350,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="858" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A858" s="11" t="s">
         <v>282</v>
       </c>
@@ -22365,7 +22366,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="860" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A860" s="11" t="s">
         <v>1553</v>
       </c>
@@ -22373,7 +22374,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="861" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A861" s="11" t="s">
         <v>1447</v>
       </c>
@@ -22389,7 +22390,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="863" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="863" spans="1:2" ht="135" x14ac:dyDescent="0.6">
       <c r="A863" s="11" t="s">
         <v>3075</v>
       </c>
@@ -22397,7 +22398,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="864" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A864" s="11" t="s">
         <v>588</v>
       </c>
@@ -22405,7 +22406,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="865" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A865" s="11" t="s">
         <v>1282</v>
       </c>
@@ -22413,7 +22414,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="866" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A866" s="11" t="s">
         <v>1114</v>
       </c>
@@ -22421,7 +22422,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="867" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="867" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A867" s="11" t="s">
         <v>589</v>
       </c>
@@ -22429,7 +22430,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="868" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A868" s="11" t="s">
         <v>590</v>
       </c>
@@ -22453,7 +22454,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="871" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A871" s="11" t="s">
         <v>286</v>
       </c>
@@ -22461,7 +22462,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="872" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A872" s="11" t="s">
         <v>1454</v>
       </c>
@@ -22469,7 +22470,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="873" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A873" s="11" t="s">
         <v>1160</v>
       </c>
@@ -22477,7 +22478,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="874" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A874" s="11" t="s">
         <v>1468</v>
       </c>
@@ -22485,7 +22486,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="875" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A875" s="11" t="s">
         <v>1309</v>
       </c>
@@ -22493,7 +22494,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="876" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A876" s="11" t="s">
         <v>287</v>
       </c>
@@ -22501,7 +22502,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="877" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A877" s="11" t="s">
         <v>1229</v>
       </c>
@@ -22509,7 +22510,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="878" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A878" s="11" t="s">
         <v>1310</v>
       </c>
@@ -22517,7 +22518,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="879" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A879" s="11" t="s">
         <v>1218</v>
       </c>
@@ -22533,7 +22534,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="881" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A881" s="11" t="s">
         <v>288</v>
       </c>
@@ -22541,7 +22542,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="882" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A882" s="11" t="s">
         <v>289</v>
       </c>
@@ -22549,7 +22550,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="883" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A883" s="11" t="s">
         <v>731</v>
       </c>
@@ -22557,7 +22558,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="884" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A884" s="11" t="s">
         <v>900</v>
       </c>
@@ -22581,7 +22582,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="887" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A887" s="11" t="s">
         <v>733</v>
       </c>
@@ -22605,7 +22606,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="890" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A890" s="11" t="s">
         <v>591</v>
       </c>
@@ -22621,7 +22622,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="892" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A892" s="11" t="s">
         <v>1645</v>
       </c>
@@ -22629,7 +22630,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="893" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A893" s="11" t="s">
         <v>1665</v>
       </c>
@@ -22637,7 +22638,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="894" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A894" s="11" t="s">
         <v>1283</v>
       </c>
@@ -22645,7 +22646,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="895" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A895" s="11" t="s">
         <v>1353</v>
       </c>
@@ -22653,7 +22654,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="896" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A896" s="11" t="s">
         <v>1380</v>
       </c>
@@ -22669,7 +22670,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="898" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A898" s="11" t="s">
         <v>1341</v>
       </c>
@@ -22677,7 +22678,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="899" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A899" s="11" t="s">
         <v>1220</v>
       </c>
@@ -22685,7 +22686,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="900" spans="1:2" ht="31.15" x14ac:dyDescent="0.6">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A900" s="11" t="s">
         <v>735</v>
       </c>
@@ -22693,7 +22694,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="901" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A901" s="11" t="s">
         <v>1681</v>
       </c>
@@ -22701,7 +22702,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="902" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="902" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A902" s="11" t="s">
         <v>592</v>
       </c>
@@ -22725,7 +22726,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="905" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A905" s="11" t="s">
         <v>1580</v>
       </c>
@@ -22733,7 +22734,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="906" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A906" s="11" t="s">
         <v>1015</v>
       </c>
@@ -22749,15 +22750,15 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="908" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
+    <row r="908" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A908" s="11" t="s">
         <v>1529</v>
       </c>
-      <c r="B908" s="40" t="s">
+      <c r="B908" s="14" t="s">
         <v>2435</v>
       </c>
     </row>
-    <row r="909" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A909" s="11" t="s">
         <v>291</v>
       </c>
@@ -22765,7 +22766,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="910" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A910" s="11" t="s">
         <v>736</v>
       </c>
@@ -22781,7 +22782,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="912" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A912" s="11" t="s">
         <v>1364</v>
       </c>
@@ -22797,7 +22798,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="914" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A914" s="11" t="s">
         <v>1747</v>
       </c>
@@ -22805,7 +22806,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="915" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A915" s="11" t="s">
         <v>293</v>
       </c>
@@ -22813,7 +22814,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="916" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A916" s="11" t="s">
         <v>1463</v>
       </c>
@@ -22821,7 +22822,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="917" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="917" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A917" s="11" t="s">
         <v>294</v>
       </c>
@@ -22829,7 +22830,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="918" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A918" s="11" t="s">
         <v>295</v>
       </c>
@@ -22837,7 +22838,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="919" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A919" s="11" t="s">
         <v>296</v>
       </c>
@@ -22845,7 +22846,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="920" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A920" s="11" t="s">
         <v>297</v>
       </c>
@@ -22853,7 +22854,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="921" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A921" s="11" t="s">
         <v>738</v>
       </c>
@@ -22861,7 +22862,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="922" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A922" s="11" t="s">
         <v>837</v>
       </c>
@@ -22877,7 +22878,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="924" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A924" s="11" t="s">
         <v>1079</v>
       </c>
@@ -22885,7 +22886,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="925" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A925" s="11" t="s">
         <v>1137</v>
       </c>
@@ -22901,7 +22902,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="927" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A927" s="11" t="s">
         <v>300</v>
       </c>
@@ -22909,7 +22910,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="928" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A928" s="11" t="s">
         <v>593</v>
       </c>
@@ -22933,7 +22934,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="931" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="931" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A931" s="11" t="s">
         <v>1138</v>
       </c>
@@ -22941,7 +22942,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="932" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A932" s="11" t="s">
         <v>1566</v>
       </c>
@@ -22957,7 +22958,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="934" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A934" s="11" t="s">
         <v>740</v>
       </c>
@@ -22981,7 +22982,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="937" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A937" s="11" t="s">
         <v>1647</v>
       </c>
@@ -22997,7 +22998,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="939" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A939" s="11" t="s">
         <v>596</v>
       </c>
@@ -23005,7 +23006,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="940" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="940" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A940" s="11" t="s">
         <v>304</v>
       </c>
@@ -23013,7 +23014,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="941" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A941" s="11" t="s">
         <v>597</v>
       </c>
@@ -23021,7 +23022,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="942" spans="1:2" ht="45.4" x14ac:dyDescent="0.6">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A942" s="11" t="s">
         <v>305</v>
       </c>
@@ -23037,7 +23038,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="944" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A944" s="11" t="s">
         <v>307</v>
       </c>
@@ -23053,7 +23054,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="946" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A946" s="11" t="s">
         <v>308</v>
       </c>
@@ -23061,7 +23062,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="947" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A947" s="11" t="s">
         <v>1415</v>
       </c>
@@ -23077,7 +23078,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="949" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A949" s="11" t="s">
         <v>598</v>
       </c>
@@ -23085,7 +23086,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="950" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="950" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A950" s="11" t="s">
         <v>1016</v>
       </c>
@@ -23101,7 +23102,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="952" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A952" s="11" t="s">
         <v>309</v>
       </c>
@@ -23109,7 +23110,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="953" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A953" s="11" t="s">
         <v>741</v>
       </c>
@@ -23117,7 +23118,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="954" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A954" s="11" t="s">
         <v>1080</v>
       </c>
@@ -23125,7 +23126,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="955" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A955" s="11" t="s">
         <v>311</v>
       </c>
@@ -23133,7 +23134,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="956" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="956" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A956" s="11" t="s">
         <v>902</v>
       </c>
@@ -23157,7 +23158,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="959" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A959" s="11" t="s">
         <v>903</v>
       </c>
@@ -23165,7 +23166,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="960" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A960" s="11" t="s">
         <v>742</v>
       </c>
@@ -23181,11 +23182,11 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="962" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A962" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="B962" s="40" t="s">
+      <c r="B962" s="14" t="s">
         <v>2473</v>
       </c>
     </row>
@@ -23205,7 +23206,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="965" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A965" s="11" t="s">
         <v>1465</v>
       </c>
@@ -23213,7 +23214,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="966" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A966" s="11" t="s">
         <v>315</v>
       </c>
@@ -23221,7 +23222,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="967" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A967" s="11" t="s">
         <v>599</v>
       </c>
@@ -23229,7 +23230,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="968" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A968" s="11" t="s">
         <v>316</v>
       </c>
@@ -23237,7 +23238,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="969" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A969" s="11" t="s">
         <v>1416</v>
       </c>
@@ -23245,7 +23246,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="970" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A970" s="11" t="s">
         <v>966</v>
       </c>
@@ -23253,7 +23254,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="971" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A971" s="11" t="s">
         <v>600</v>
       </c>
@@ -23261,7 +23262,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="972" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="972" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A972" s="11" t="s">
         <v>1296</v>
       </c>
@@ -23285,7 +23286,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="975" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A975" s="11" t="s">
         <v>1270</v>
       </c>
@@ -23325,7 +23326,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="980" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="980" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A980" s="11" t="s">
         <v>1139</v>
       </c>
@@ -23333,7 +23334,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="981" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A981" s="11" t="s">
         <v>1018</v>
       </c>
@@ -23341,7 +23342,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="982" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="982" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A982" s="11" t="s">
         <v>967</v>
       </c>
@@ -23349,7 +23350,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="983" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A983" s="11" t="s">
         <v>1182</v>
       </c>
@@ -23357,7 +23358,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="984" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="984" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A984" s="11" t="s">
         <v>602</v>
       </c>
@@ -23365,7 +23366,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="985" spans="1:2" ht="42.75" x14ac:dyDescent="0.6">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A985" s="11" t="s">
         <v>319</v>
       </c>
@@ -23373,7 +23374,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="986" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A986" s="11" t="s">
         <v>743</v>
       </c>
@@ -23381,7 +23382,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="987" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A987" s="11" t="s">
         <v>1584</v>
       </c>
@@ -23389,7 +23390,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="988" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A988" s="11" t="s">
         <v>968</v>
       </c>
@@ -23397,7 +23398,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="989" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A989" s="11" t="s">
         <v>320</v>
       </c>
@@ -23413,7 +23414,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="991" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A991" s="11" t="s">
         <v>1082</v>
       </c>
@@ -23421,7 +23422,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="992" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A992" s="11" t="s">
         <v>321</v>
       </c>
@@ -23429,7 +23430,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="993" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A993" s="11" t="s">
         <v>1717</v>
       </c>
@@ -23437,7 +23438,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="994" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A994" s="11" t="s">
         <v>322</v>
       </c>
@@ -23445,7 +23446,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="995" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A995" s="11" t="s">
         <v>1547</v>
       </c>
@@ -23453,7 +23454,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="996" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="996" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A996" s="11" t="s">
         <v>604</v>
       </c>
@@ -23461,7 +23462,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="997" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="997" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A997" s="11" t="s">
         <v>323</v>
       </c>
@@ -23469,7 +23470,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="998" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A998" s="11" t="s">
         <v>325</v>
       </c>
@@ -23477,7 +23478,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="999" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A999" s="11" t="s">
         <v>904</v>
       </c>
@@ -23493,7 +23494,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="1001" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1001" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1001" s="11" t="s">
         <v>1680</v>
       </c>
@@ -23501,7 +23502,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="1002" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1002" s="11" t="s">
         <v>969</v>
       </c>
@@ -23517,7 +23518,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="1004" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1004" s="11" t="s">
         <v>1141</v>
       </c>
@@ -23541,7 +23542,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="1007" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1007" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1007" s="11" t="s">
         <v>1549</v>
       </c>
@@ -23557,7 +23558,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1009" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1009" s="11" t="s">
         <v>745</v>
       </c>
@@ -23565,7 +23566,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="1010" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1010" s="11" t="s">
         <v>1142</v>
       </c>
@@ -23573,7 +23574,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="1011" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1011" s="11" t="s">
         <v>1020</v>
       </c>
@@ -23581,7 +23582,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="1012" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1012" s="11" t="s">
         <v>746</v>
       </c>
@@ -23589,7 +23590,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="1013" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1013" s="11" t="s">
         <v>905</v>
       </c>
@@ -23597,7 +23598,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="1014" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1014" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1014" s="11" t="s">
         <v>1602</v>
       </c>
@@ -23605,7 +23606,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1015" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1015" s="11" t="s">
         <v>747</v>
       </c>
@@ -23613,7 +23614,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="1016" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1016" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1016" s="11" t="s">
         <v>906</v>
       </c>
@@ -23629,7 +23630,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="1018" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1018" s="11" t="s">
         <v>1470</v>
       </c>
@@ -23637,7 +23638,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="1019" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1019" s="11" t="s">
         <v>327</v>
       </c>
@@ -23645,7 +23646,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="1020" spans="1:2" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1020" s="11" t="s">
         <v>328</v>
       </c>
@@ -23653,7 +23654,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="1021" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1021" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1021" s="11" t="s">
         <v>1427</v>
       </c>
@@ -23661,7 +23662,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="1022" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1022" s="11" t="s">
         <v>1642</v>
       </c>
@@ -23669,7 +23670,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="1023" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1023" s="11" t="s">
         <v>1342</v>
       </c>
@@ -23677,7 +23678,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1024" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1024" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1024" s="11" t="s">
         <v>1393</v>
       </c>
@@ -23685,7 +23686,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="1025" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1025" s="11" t="s">
         <v>1021</v>
       </c>
@@ -23693,7 +23694,7 @@
         <v>2987</v>
       </c>
     </row>
-    <row r="1026" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1026" s="11" t="s">
         <v>1381</v>
       </c>
@@ -23701,7 +23702,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1027" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1027" s="11" t="s">
         <v>1022</v>
       </c>
@@ -23709,7 +23710,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="1028" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1028" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1028" s="11" t="s">
         <v>842</v>
       </c>
@@ -23717,7 +23718,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="1029" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1029" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1029" s="11" t="s">
         <v>1376</v>
       </c>
@@ -23725,7 +23726,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="1030" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1030" spans="1:2" ht="253.15" x14ac:dyDescent="0.6">
       <c r="A1030" s="11" t="s">
         <v>1677</v>
       </c>
@@ -23733,7 +23734,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="1031" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1031" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1031" s="11" t="s">
         <v>1335</v>
       </c>
@@ -23741,7 +23742,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="1032" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1032" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1032" s="11" t="s">
         <v>606</v>
       </c>
@@ -23757,7 +23758,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="1034" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1034" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1034" s="11" t="s">
         <v>1253</v>
       </c>
@@ -23765,7 +23766,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="1035" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1035" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1035" s="11" t="s">
         <v>1649</v>
       </c>
@@ -23773,7 +23774,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="1036" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1036" s="11" t="s">
         <v>1049</v>
       </c>
@@ -23781,7 +23782,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="1037" spans="1:2" ht="42.75" x14ac:dyDescent="0.6">
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1037" s="11" t="s">
         <v>1591</v>
       </c>
@@ -23789,7 +23790,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="1038" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1038" s="11" t="s">
         <v>329</v>
       </c>
@@ -23797,7 +23798,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="1039" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1039" s="11" t="s">
         <v>748</v>
       </c>
@@ -23805,7 +23806,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="1040" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1040" s="11" t="s">
         <v>749</v>
       </c>
@@ -23813,7 +23814,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="1041" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1041" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1041" s="11" t="s">
         <v>330</v>
       </c>
@@ -23821,7 +23822,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="1042" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1042" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1042" s="11" t="s">
         <v>1550</v>
       </c>
@@ -23829,7 +23830,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="1043" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1043" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1043" s="11" t="s">
         <v>1706</v>
       </c>
@@ -23837,7 +23838,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="1044" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1044" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1044" s="11" t="s">
         <v>1143</v>
       </c>
@@ -23845,7 +23846,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1045" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1045" s="11" t="s">
         <v>1023</v>
       </c>
@@ -23861,7 +23862,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1047" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1047" s="11" t="s">
         <v>1183</v>
       </c>
@@ -23869,7 +23870,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1048" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1048" s="11" t="s">
         <v>1581</v>
       </c>
@@ -23877,7 +23878,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="1049" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1049" s="11" t="s">
         <v>1596</v>
       </c>
@@ -23885,7 +23886,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="1050" spans="1:2" ht="202.5" x14ac:dyDescent="0.6">
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1050" s="11" t="s">
         <v>331</v>
       </c>
@@ -23893,7 +23894,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="1051" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1051" s="11" t="s">
         <v>332</v>
       </c>
@@ -23901,7 +23902,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="1052" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
+    <row r="1052" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1052" s="11" t="s">
         <v>333</v>
       </c>
@@ -23909,7 +23910,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="1053" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1053" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1053" s="11" t="s">
         <v>843</v>
       </c>
@@ -23917,7 +23918,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="1054" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1054" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1054" s="11" t="s">
         <v>334</v>
       </c>
@@ -23925,7 +23926,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="1055" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1055" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1055" s="11" t="s">
         <v>750</v>
       </c>
@@ -23933,7 +23934,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="1056" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1056" s="11" t="s">
         <v>1116</v>
       </c>
@@ -23949,7 +23950,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="1058" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1058" s="11" t="s">
         <v>1163</v>
       </c>
@@ -24021,7 +24022,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="1067" spans="1:2" ht="168.75" x14ac:dyDescent="0.6">
+    <row r="1067" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1067" s="11" t="s">
         <v>1221</v>
       </c>
@@ -24029,7 +24030,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="1068" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1068" s="11" t="s">
         <v>339</v>
       </c>
@@ -24045,7 +24046,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="1070" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1070" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1070" s="11" t="s">
         <v>1673</v>
       </c>
@@ -24053,7 +24054,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="1071" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1071" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1071" s="11" t="s">
         <v>1083</v>
       </c>
@@ -24061,7 +24062,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="1072" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1072" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1072" s="11" t="s">
         <v>1084</v>
       </c>
@@ -24069,7 +24070,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="1073" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1073" s="11" t="s">
         <v>340</v>
       </c>
@@ -24077,7 +24078,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="1074" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1074" s="11" t="s">
         <v>341</v>
       </c>
@@ -24085,7 +24086,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="1075" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1075" s="11" t="s">
         <v>970</v>
       </c>
@@ -24093,7 +24094,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="1076" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1076" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1076" s="11" t="s">
         <v>612</v>
       </c>
@@ -24125,7 +24126,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="1080" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1080" spans="1:2" ht="219.4" x14ac:dyDescent="0.6">
       <c r="A1080" s="11" t="s">
         <v>3081</v>
       </c>
@@ -24133,7 +24134,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="1081" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1081" s="11" t="s">
         <v>613</v>
       </c>
@@ -24141,7 +24142,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="1082" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1082" s="11" t="s">
         <v>345</v>
       </c>
@@ -24157,7 +24158,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="1084" spans="1:2" ht="135" x14ac:dyDescent="0.6">
+    <row r="1084" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1084" s="11" t="s">
         <v>614</v>
       </c>
@@ -24165,7 +24166,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="1085" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1085" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1085" s="11" t="s">
         <v>615</v>
       </c>
@@ -24173,7 +24174,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="1086" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1086" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1086" s="11" t="s">
         <v>347</v>
       </c>
@@ -24189,7 +24190,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="1088" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1088" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1088" s="11" t="s">
         <v>752</v>
       </c>
@@ -24197,7 +24198,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="1089" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1089" s="11" t="s">
         <v>349</v>
       </c>
@@ -24213,7 +24214,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="1091" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1091" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1091" s="11" t="s">
         <v>617</v>
       </c>
@@ -24221,7 +24222,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="1092" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1092" s="11" t="s">
         <v>753</v>
       </c>
@@ -24229,7 +24230,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="1093" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1093" s="11" t="s">
         <v>845</v>
       </c>
@@ -24237,7 +24238,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="1094" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1094" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1094" s="11" t="s">
         <v>846</v>
       </c>
@@ -24245,7 +24246,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="1095" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1095" s="11" t="s">
         <v>1403</v>
       </c>
@@ -24261,7 +24262,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="1097" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1097" s="11" t="s">
         <v>1271</v>
       </c>
@@ -24269,7 +24270,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="1098" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1098" s="11" t="s">
         <v>351</v>
       </c>
@@ -24317,7 +24318,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="1104" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1104" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1104" s="11" t="s">
         <v>847</v>
       </c>
@@ -24325,7 +24326,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="1105" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1105" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1105" s="11" t="s">
         <v>848</v>
       </c>
@@ -24341,7 +24342,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="1107" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1107" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1107" s="11" t="s">
         <v>850</v>
       </c>
@@ -24381,7 +24382,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="1112" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1112" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1112" s="11" t="s">
         <v>851</v>
       </c>
@@ -24389,7 +24390,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="1113" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1113" s="11" t="s">
         <v>754</v>
       </c>
@@ -24397,7 +24398,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="1114" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1114" s="11" t="s">
         <v>356</v>
       </c>
@@ -24405,7 +24406,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="1115" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1115" s="11" t="s">
         <v>357</v>
       </c>
@@ -24421,7 +24422,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="1117" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1117" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1117" s="11" t="s">
         <v>359</v>
       </c>
@@ -24429,7 +24430,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="1118" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1118" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1118" s="11" t="s">
         <v>618</v>
       </c>
@@ -24437,7 +24438,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="1119" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1119" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1119" s="11" t="s">
         <v>1085</v>
       </c>
@@ -24453,7 +24454,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="1121" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1121" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1121" s="11" t="s">
         <v>1320</v>
       </c>
@@ -24461,7 +24462,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="1122" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1122" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1122" s="11" t="s">
         <v>1117</v>
       </c>
@@ -24485,7 +24486,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="1125" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1125" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1125" s="11" t="s">
         <v>1118</v>
       </c>
@@ -24493,7 +24494,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1126" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1126" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1126" s="11" t="s">
         <v>1464</v>
       </c>
@@ -24509,7 +24510,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="1128" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1128" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1128" s="11" t="s">
         <v>1435</v>
       </c>
@@ -24517,7 +24518,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="1129" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1129" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1129" s="11" t="s">
         <v>1051</v>
       </c>
@@ -24525,7 +24526,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="1130" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1130" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1130" s="11" t="s">
         <v>1024</v>
       </c>
@@ -24533,7 +24534,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="1131" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1131" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1131" s="11" t="s">
         <v>1326</v>
       </c>
@@ -24541,7 +24542,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="1132" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1132" s="11" t="s">
         <v>756</v>
       </c>
@@ -24549,7 +24550,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="1133" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1133" s="11" t="s">
         <v>972</v>
       </c>
@@ -24557,7 +24558,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="1134" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1134" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1134" s="11" t="s">
         <v>1369</v>
       </c>
@@ -24565,7 +24566,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="1135" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1135" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1135" s="11" t="s">
         <v>363</v>
       </c>
@@ -24581,7 +24582,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="1137" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1137" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1137" s="11" t="s">
         <v>1422</v>
       </c>
@@ -24589,7 +24590,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="1138" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1138" s="11" t="s">
         <v>364</v>
       </c>
@@ -24597,7 +24598,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="1139" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1139" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1139" s="11" t="s">
         <v>620</v>
       </c>
@@ -24605,7 +24606,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="1140" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1140" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1140" s="11" t="s">
         <v>973</v>
       </c>
@@ -24613,7 +24614,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="1141" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1141" s="11" t="s">
         <v>1025</v>
       </c>
@@ -24621,7 +24622,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="1142" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1142" s="11" t="s">
         <v>622</v>
       </c>
@@ -24629,7 +24630,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="1143" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1143" s="11" t="s">
         <v>1569</v>
       </c>
@@ -24637,7 +24638,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="1144" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1144" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1144" s="11" t="s">
         <v>1231</v>
       </c>
@@ -24645,7 +24646,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="1145" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1145" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1145" s="11" t="s">
         <v>365</v>
       </c>
@@ -24653,7 +24654,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="1146" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1146" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1146" s="11" t="s">
         <v>1607</v>
       </c>
@@ -24661,7 +24662,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="1147" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1147" s="11" t="s">
         <v>1423</v>
       </c>
@@ -24669,7 +24670,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="1148" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1148" s="11" t="s">
         <v>1457</v>
       </c>
@@ -24701,7 +24702,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1152" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1152" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1152" s="11" t="s">
         <v>1513</v>
       </c>
@@ -24725,7 +24726,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="1155" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1155" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1155" s="11" t="s">
         <v>1409</v>
       </c>
@@ -24749,7 +24750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1158" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1158" s="11" t="s">
         <v>908</v>
       </c>
@@ -24757,7 +24758,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="1159" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1159" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1159" s="11" t="s">
         <v>368</v>
       </c>
@@ -24765,7 +24766,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="1160" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1160" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1160" s="11" t="s">
         <v>369</v>
       </c>
@@ -24789,7 +24790,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="1163" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1163" s="11" t="s">
         <v>1439</v>
       </c>
@@ -24797,7 +24798,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="1164" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1164" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1164" s="11" t="s">
         <v>1609</v>
       </c>
@@ -24805,7 +24806,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="1165" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1165" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1165" s="11" t="s">
         <v>371</v>
       </c>
@@ -24813,7 +24814,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1166" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1166" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1166" s="11" t="s">
         <v>1052</v>
       </c>
@@ -24821,7 +24822,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="1167" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1167" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1167" s="11" t="s">
         <v>1343</v>
       </c>
@@ -24845,7 +24846,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="1170" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1170" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1170" s="11" t="s">
         <v>1495</v>
       </c>
@@ -24853,7 +24854,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="1171" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1171" s="11" t="s">
         <v>1272</v>
       </c>
@@ -24861,7 +24862,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="1172" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1172" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1172" s="11" t="s">
         <v>758</v>
       </c>
@@ -24869,7 +24870,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="1173" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1173" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1173" s="11" t="s">
         <v>1145</v>
       </c>
@@ -24877,7 +24878,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="1174" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1174" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1174" s="11" t="s">
         <v>1328</v>
       </c>
@@ -24885,7 +24886,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="1175" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1175" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1175" s="11" t="s">
         <v>624</v>
       </c>
@@ -24893,7 +24894,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="1176" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1176" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1176" s="11" t="s">
         <v>373</v>
       </c>
@@ -24909,7 +24910,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="1178" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1178" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1178" s="11" t="s">
         <v>909</v>
       </c>
@@ -24917,7 +24918,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="1179" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1179" s="11" t="s">
         <v>1872</v>
       </c>
@@ -24925,7 +24926,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="1180" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1180" s="11" t="s">
         <v>626</v>
       </c>
@@ -24933,7 +24934,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="1181" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1181" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1181" s="11" t="s">
         <v>1321</v>
       </c>
@@ -24941,7 +24942,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="1182" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1182" s="11" t="s">
         <v>1357</v>
       </c>
@@ -24949,7 +24950,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="1183" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1183" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1183" s="11" t="s">
         <v>760</v>
       </c>
@@ -24957,7 +24958,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="1184" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1184" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1184" s="11" t="s">
         <v>1255</v>
       </c>
@@ -24965,7 +24966,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="1185" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1185" s="11" t="s">
         <v>1611</v>
       </c>
@@ -24973,7 +24974,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="1186" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1186" s="11" t="s">
         <v>1644</v>
       </c>
@@ -24981,7 +24982,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="1187" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1187" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1187" s="11" t="s">
         <v>627</v>
       </c>
@@ -24989,7 +24990,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="1188" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1188" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1188" s="11" t="s">
         <v>1344</v>
       </c>
@@ -24997,7 +24998,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="1189" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1189" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1189" s="11" t="s">
         <v>1437</v>
       </c>
@@ -25005,7 +25006,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="1190" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1190" s="11" t="s">
         <v>1592</v>
       </c>
@@ -25013,7 +25014,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="1191" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1191" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1191" s="11" t="s">
         <v>628</v>
       </c>
@@ -25029,7 +25030,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="1193" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1193" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1193" s="11" t="s">
         <v>1322</v>
       </c>
@@ -25037,7 +25038,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="1194" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1194" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1194" s="11" t="s">
         <v>375</v>
       </c>
@@ -25045,7 +25046,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="1195" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1195" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1195" s="11" t="s">
         <v>1551</v>
       </c>
@@ -25069,7 +25070,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="1198" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1198" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1198" s="11" t="s">
         <v>853</v>
       </c>
@@ -25085,7 +25086,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="1200" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1200" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1200" s="11" t="s">
         <v>1284</v>
       </c>
@@ -25101,7 +25102,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="1202" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1202" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1202" s="11" t="s">
         <v>0</v>
       </c>
@@ -25109,7 +25110,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="1203" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1203" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1203" s="11" t="s">
         <v>377</v>
       </c>
@@ -25125,7 +25126,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="1205" spans="1:2" ht="253.15" x14ac:dyDescent="0.6">
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1205" s="11" t="s">
         <v>378</v>
       </c>
@@ -25165,7 +25166,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="1210" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1210" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1210" s="11" t="s">
         <v>761</v>
       </c>
@@ -25181,7 +25182,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="1212" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1212" s="11" t="s">
         <v>382</v>
       </c>
@@ -25189,7 +25190,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="1213" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1213" s="11" t="s">
         <v>383</v>
       </c>
@@ -25205,7 +25206,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="1215" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1215" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1215" s="11" t="s">
         <v>630</v>
       </c>
@@ -25245,7 +25246,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="1220" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1220" s="11" t="s">
         <v>631</v>
       </c>
@@ -25261,7 +25262,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="1222" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1222" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1222" s="11" t="s">
         <v>1222</v>
       </c>
@@ -25269,7 +25270,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="1223" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1223" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1223" s="11" t="s">
         <v>632</v>
       </c>
@@ -25277,7 +25278,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1224" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1224" s="11" t="s">
         <v>1346</v>
       </c>
@@ -25285,7 +25286,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="1225" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1225" s="11" t="s">
         <v>762</v>
       </c>
@@ -25293,7 +25294,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="1226" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1226" s="11" t="s">
         <v>390</v>
       </c>
@@ -25317,7 +25318,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="1229" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1229" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1229" s="11" t="s">
         <v>1054</v>
       </c>
@@ -25333,7 +25334,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="1231" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1231" s="11" t="s">
         <v>392</v>
       </c>
@@ -25349,7 +25350,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="1233" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1233" s="11" t="s">
         <v>1445</v>
       </c>
@@ -25357,7 +25358,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="1234" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1234" s="11" t="s">
         <v>633</v>
       </c>
@@ -25365,7 +25366,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="1235" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1235" s="11" t="s">
         <v>1618</v>
       </c>
@@ -25381,7 +25382,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="1237" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1237" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1237" s="11" t="s">
         <v>1055</v>
       </c>
@@ -25389,7 +25390,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="1238" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1238" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1238" s="11" t="s">
         <v>393</v>
       </c>
@@ -25413,7 +25414,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="1241" spans="1:2" ht="219.4" x14ac:dyDescent="0.6">
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1241" s="11" t="s">
         <v>395</v>
       </c>
@@ -25445,7 +25446,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="1245" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1245" s="11" t="s">
         <v>1273</v>
       </c>
@@ -25461,7 +25462,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1247" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1247" s="11" t="s">
         <v>396</v>
       </c>
@@ -25477,7 +25478,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="1249" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1249" s="11" t="s">
         <v>975</v>
       </c>
@@ -25493,7 +25494,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="1251" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1251" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1251" s="11" t="s">
         <v>911</v>
       </c>
@@ -25501,7 +25502,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1252" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1252" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1252" s="11" t="s">
         <v>1510</v>
       </c>
@@ -25517,7 +25518,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="1254" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1254" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1254" s="11" t="s">
         <v>912</v>
       </c>
@@ -25533,7 +25534,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="1256" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1256" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1256" s="11" t="s">
         <v>1548</v>
       </c>
@@ -25541,7 +25542,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="1257" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1257" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1257" s="11" t="s">
         <v>1612</v>
       </c>
@@ -25549,7 +25550,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="1258" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1258" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1258" s="11" t="s">
         <v>1211</v>
       </c>
@@ -25557,7 +25558,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="1259" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1259" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1259" s="11" t="s">
         <v>1164</v>
       </c>
@@ -25565,7 +25566,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="1260" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1260" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1260" s="11" t="s">
         <v>1593</v>
       </c>
@@ -25573,7 +25574,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="1261" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1261" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1261" s="11" t="s">
         <v>400</v>
       </c>
@@ -25589,7 +25590,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="1263" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1263" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1263" s="11" t="s">
         <v>635</v>
       </c>
@@ -25597,7 +25598,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="1264" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1264" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1264" s="11" t="s">
         <v>914</v>
       </c>
@@ -25613,7 +25614,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="1266" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1266" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1266" s="11" t="s">
         <v>401</v>
       </c>
@@ -25621,7 +25622,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1267" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1267" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1267" s="11" t="s">
         <v>1657</v>
       </c>
@@ -25629,7 +25630,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="1268" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1268" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1268" s="11" t="s">
         <v>639</v>
       </c>
@@ -25637,7 +25638,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="1269" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1269" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1269" s="11" t="s">
         <v>1674</v>
       </c>
@@ -25645,7 +25646,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="1270" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1270" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1270" s="11" t="s">
         <v>402</v>
       </c>
@@ -25653,7 +25654,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="1271" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1271" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1271" s="11" t="s">
         <v>1311</v>
       </c>
@@ -25661,7 +25662,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="1272" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1272" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1272" s="11" t="s">
         <v>1186</v>
       </c>
@@ -25669,7 +25670,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="1273" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1273" s="11" t="s">
         <v>976</v>
       </c>
@@ -25677,7 +25678,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="1274" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1274" s="11" t="s">
         <v>916</v>
       </c>
@@ -25685,7 +25686,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="1275" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1275" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1275" s="11" t="s">
         <v>1684</v>
       </c>
@@ -25701,7 +25702,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="1277" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1277" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1277" s="11" t="s">
         <v>917</v>
       </c>
@@ -25709,7 +25710,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="1278" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1278" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1278" s="11" t="s">
         <v>403</v>
       </c>
@@ -25717,7 +25718,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="1279" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1279" s="11" t="s">
         <v>404</v>
       </c>
@@ -25725,7 +25726,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="1280" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1280" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1280" s="11" t="s">
         <v>1377</v>
       </c>
@@ -25733,7 +25734,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="1281" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1281" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1281" s="11" t="s">
         <v>764</v>
       </c>
@@ -25741,7 +25742,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="1282" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1282" s="11" t="s">
         <v>1557</v>
       </c>
@@ -25749,7 +25750,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="1283" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1283" s="11" t="s">
         <v>1057</v>
       </c>
@@ -25781,7 +25782,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="1287" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1287" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1287" s="11" t="s">
         <v>1298</v>
       </c>
@@ -25797,7 +25798,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="1289" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1289" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1289" s="11" t="s">
         <v>640</v>
       </c>
@@ -25805,7 +25806,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="1290" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1290" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1290" s="11" t="s">
         <v>918</v>
       </c>
@@ -25813,7 +25814,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="1291" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1291" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1291" s="11" t="s">
         <v>856</v>
       </c>
@@ -25821,7 +25822,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="1292" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1292" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1292" s="11" t="s">
         <v>641</v>
       </c>
@@ -25829,7 +25830,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="1293" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1293" s="11" t="s">
         <v>919</v>
       </c>
@@ -25837,7 +25838,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="1294" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1294" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1294" s="11" t="s">
         <v>765</v>
       </c>
@@ -25861,7 +25862,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="1297" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1297" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1297" s="11" t="s">
         <v>977</v>
       </c>
@@ -25869,7 +25870,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="1298" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1298" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1298" s="11" t="s">
         <v>978</v>
       </c>
@@ -25877,7 +25878,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="1299" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1299" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1299" s="11" t="s">
         <v>1299</v>
       </c>
@@ -25885,7 +25886,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="1300" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1300" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1300" s="11" t="s">
         <v>920</v>
       </c>
@@ -25901,7 +25902,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="1302" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1302" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1302" s="11" t="s">
         <v>405</v>
       </c>
@@ -25909,7 +25910,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="1303" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1303" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A1303" s="11" t="s">
         <v>1188</v>
       </c>
@@ -25925,7 +25926,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="1305" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1305" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1305" s="11" t="s">
         <v>1285</v>
       </c>
@@ -25933,7 +25934,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="1306" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1306" s="11" t="s">
         <v>406</v>
       </c>
@@ -25941,7 +25942,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="1307" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1307" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1307" s="11" t="s">
         <v>407</v>
       </c>
@@ -25957,7 +25958,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="1309" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1309" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1309" s="11" t="s">
         <v>1358</v>
       </c>
@@ -25965,7 +25966,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="1310" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1310" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1310" s="11" t="s">
         <v>766</v>
       </c>
@@ -25973,7 +25974,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="1311" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1311" s="11" t="s">
         <v>642</v>
       </c>
@@ -25981,7 +25982,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1312" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1312" s="11" t="s">
         <v>858</v>
       </c>
@@ -25989,7 +25990,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="1313" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1313" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1313" s="11" t="s">
         <v>408</v>
       </c>
@@ -25997,7 +25998,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="1314" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1314" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1314" s="11" t="s">
         <v>409</v>
       </c>
@@ -26029,7 +26030,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1318" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1318" s="11" t="s">
         <v>413</v>
       </c>
@@ -26037,7 +26038,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="1319" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1319" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1319" s="11" t="s">
         <v>414</v>
       </c>
@@ -26045,7 +26046,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="1320" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1320" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1320" s="11" t="s">
         <v>768</v>
       </c>
@@ -26069,7 +26070,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="1323" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1323" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1323" s="11" t="s">
         <v>1286</v>
       </c>
@@ -26077,7 +26078,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="1324" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1324" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1324" s="11" t="s">
         <v>859</v>
       </c>
@@ -26085,7 +26086,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="1325" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1325" s="11" t="s">
         <v>416</v>
       </c>
@@ -26101,15 +26102,15 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="1327" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1327" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1327" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="B1327" s="40" t="s">
+      <c r="B1327" s="14" t="s">
         <v>3018</v>
       </c>
     </row>
-    <row r="1328" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1328" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
       <c r="A1328" s="11" t="s">
         <v>1233</v>
       </c>
@@ -26117,7 +26118,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="1329" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1329" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
       <c r="A1329" s="11" t="s">
         <v>418</v>
       </c>
@@ -26125,7 +26126,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="1330" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1330" spans="1:2" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A1330" s="11" t="s">
         <v>419</v>
       </c>
@@ -26133,7 +26134,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="1331" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1331" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1331" s="11" t="s">
         <v>1534</v>
       </c>
@@ -26141,7 +26142,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="1332" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1332" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
       <c r="A1332" s="11" t="s">
         <v>420</v>
       </c>
@@ -26149,7 +26150,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="1333" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1333" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1333" s="11" t="s">
         <v>1234</v>
       </c>
@@ -26165,7 +26166,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="1335" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1335" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
       <c r="A1335" s="11" t="s">
         <v>421</v>
       </c>
@@ -26181,7 +26182,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="1337" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1337" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1337" s="11" t="s">
         <v>645</v>
       </c>
@@ -26189,7 +26190,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="1338" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1338" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1338" s="11" t="s">
         <v>646</v>
       </c>
@@ -26197,7 +26198,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="1339" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1339" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1339" s="11" t="s">
         <v>647</v>
       </c>
@@ -26205,7 +26206,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="1340" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1340" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1340" s="11" t="s">
         <v>422</v>
       </c>
@@ -26213,7 +26214,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="1341" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1341" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1341" s="11" t="s">
         <v>423</v>
       </c>
@@ -26221,7 +26222,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="1342" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1342" spans="1:2" ht="219.4" x14ac:dyDescent="0.6">
       <c r="A1342" s="11" t="s">
         <v>860</v>
       </c>
@@ -26229,7 +26230,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="1343" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1343" spans="1:2" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A1343" s="11" t="s">
         <v>424</v>
       </c>
@@ -26237,7 +26238,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="1344" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1344" spans="1:2" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A1344" s="11" t="s">
         <v>921</v>
       </c>
@@ -26245,7 +26246,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="1345" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1345" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1345" s="11" t="s">
         <v>1668</v>
       </c>
@@ -26253,7 +26254,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="1346" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1346" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1346" s="11" t="s">
         <v>769</v>
       </c>
@@ -26261,7 +26262,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="1347" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1347" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1347" s="11" t="s">
         <v>1027</v>
       </c>
@@ -26269,7 +26270,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="1348" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1348" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1348" s="11" t="s">
         <v>770</v>
       </c>
@@ -26277,7 +26278,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="1349" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1349" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1349" s="11" t="s">
         <v>1561</v>
       </c>
@@ -26293,7 +26294,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="1351" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1351" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
       <c r="A1351" s="11" t="s">
         <v>1594</v>
       </c>
@@ -26301,7 +26302,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="1352" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1352" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1352" s="11" t="s">
         <v>861</v>
       </c>
@@ -26333,7 +26334,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="1356" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1356" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1356" s="11" t="s">
         <v>1258</v>
       </c>
@@ -26341,7 +26342,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="1357" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1357" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1357" s="11" t="s">
         <v>1120</v>
       </c>
@@ -26349,7 +26350,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="1358" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1358" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A1358" s="11" t="s">
         <v>1235</v>
       </c>
@@ -26357,7 +26358,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="1359" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1359" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A1359" s="11" t="s">
         <v>648</v>
       </c>
@@ -26365,7 +26366,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="1360" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1360" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A1360" s="11" t="s">
         <v>862</v>
       </c>
@@ -26389,7 +26390,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="1363" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1363" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1363" s="11" t="s">
         <v>1058</v>
       </c>
@@ -26397,7 +26398,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="1364" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1364" s="11" t="s">
         <v>771</v>
       </c>
@@ -26405,7 +26406,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="1365" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1365" s="11" t="s">
         <v>1189</v>
       </c>
@@ -26421,7 +26422,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="1367" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1367" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1367" s="11" t="s">
         <v>1312</v>
       </c>
@@ -26429,7 +26430,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="1368" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1368" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1368" s="11" t="s">
         <v>865</v>
       </c>
@@ -26437,7 +26438,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="1369" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1369" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A1369" s="11" t="s">
         <v>980</v>
       </c>
@@ -26453,7 +26454,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="1371" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1371" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1371" s="11" t="s">
         <v>923</v>
       </c>
@@ -26469,7 +26470,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="1373" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1373" s="11" t="s">
         <v>427</v>
       </c>
@@ -26477,7 +26478,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="1374" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1374" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1374" s="11" t="s">
         <v>981</v>
       </c>
@@ -26509,7 +26510,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="1378" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1378" s="11" t="s">
         <v>429</v>
       </c>
@@ -26517,7 +26518,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="1379" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1379" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1379" s="11" t="s">
         <v>1313</v>
       </c>
@@ -26525,7 +26526,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="1380" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1380" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1380" s="11" t="s">
         <v>926</v>
       </c>
@@ -26541,7 +26542,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="1382" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1382" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1382" s="11" t="s">
         <v>430</v>
       </c>
@@ -26557,7 +26558,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="1384" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1384" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1384" s="11" t="s">
         <v>1236</v>
       </c>
@@ -26565,7 +26566,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="1385" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1385" s="11" t="s">
         <v>649</v>
       </c>
@@ -26573,7 +26574,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="1386" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1386" s="11" t="s">
         <v>432</v>
       </c>
@@ -26581,7 +26582,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="1387" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1387" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1387" s="11" t="s">
         <v>433</v>
       </c>
@@ -26597,7 +26598,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="1389" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1389" spans="1:2" ht="135" x14ac:dyDescent="0.6">
       <c r="A1389" s="11" t="s">
         <v>1509</v>
       </c>
@@ -26605,7 +26606,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="1390" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1390" s="11" t="s">
         <v>1578</v>
       </c>
@@ -26613,7 +26614,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="1391" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1391" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1391" s="11" t="s">
         <v>772</v>
       </c>
@@ -26621,7 +26622,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="1392" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1392" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1392" s="11" t="s">
         <v>650</v>
       </c>
@@ -26629,7 +26630,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="1393" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1393" spans="1:2" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A1393" s="11" t="s">
         <v>1259</v>
       </c>
@@ -26637,7 +26638,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="1394" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1394" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1394" s="11" t="s">
         <v>1238</v>
       </c>
@@ -26645,7 +26646,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="1395" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1395" s="11" t="s">
         <v>435</v>
       </c>
@@ -26653,7 +26654,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="1396" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1396" spans="1:2" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A1396" s="11" t="s">
         <v>1613</v>
       </c>
@@ -26661,7 +26662,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="1397" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1397" s="11" t="s">
         <v>651</v>
       </c>
@@ -26669,7 +26670,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="1398" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1398" spans="1:2" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A1398" s="11" t="s">
         <v>1471</v>
       </c>
@@ -26677,7 +26678,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="1399" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1399" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1399" s="11" t="s">
         <v>1354</v>
       </c>
@@ -26685,7 +26686,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1400" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1400" s="11" t="s">
         <v>1028</v>
       </c>
@@ -26693,7 +26694,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="1401" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1401" s="11" t="s">
         <v>1765</v>
       </c>
@@ -26701,7 +26702,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="1402" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1402" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1402" s="11" t="s">
         <v>436</v>
       </c>
@@ -26709,7 +26710,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="1403" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1403" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1403" s="11" t="s">
         <v>1088</v>
       </c>
@@ -26717,7 +26718,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="1404" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1404" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
       <c r="A1404" s="11" t="s">
         <v>983</v>
       </c>
@@ -26725,7 +26726,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="1405" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1405" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1405" s="11" t="s">
         <v>437</v>
       </c>
@@ -26741,7 +26742,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="1407" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1407" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1407" s="11" t="s">
         <v>438</v>
       </c>
@@ -26749,7 +26750,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="1408" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1408" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1408" s="11" t="s">
         <v>439</v>
       </c>
@@ -26757,7 +26758,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="1409" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1409" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1409" s="11" t="s">
         <v>867</v>
       </c>
@@ -26765,7 +26766,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="1410" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1410" s="11" t="s">
         <v>440</v>
       </c>
@@ -26813,7 +26814,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="1416" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1416" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1416" s="11" t="s">
         <v>442</v>
       </c>
@@ -26829,7 +26830,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="1418" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
+    <row r="1418" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1418" s="11" t="s">
         <v>1190</v>
       </c>
@@ -26837,7 +26838,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="1419" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
+    <row r="1419" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1419" s="11" t="s">
         <v>444</v>
       </c>
@@ -26877,7 +26878,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="1424" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1424" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1424" s="11" t="s">
         <v>1148</v>
       </c>
@@ -26885,7 +26886,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1425" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
+    <row r="1425" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1425" s="11" t="s">
         <v>445</v>
       </c>
@@ -26893,7 +26894,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="1426" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1426" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1426" s="11" t="s">
         <v>868</v>
       </c>
@@ -26925,7 +26926,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="1430" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1430" s="11" t="s">
         <v>655</v>
       </c>
@@ -26933,7 +26934,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="1431" spans="1:2" ht="219.4" x14ac:dyDescent="0.6">
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1431" s="11" t="s">
         <v>1121</v>
       </c>
@@ -26941,7 +26942,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="1432" spans="1:2" ht="151.9" x14ac:dyDescent="0.6">
+    <row r="1432" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1432" s="11" t="s">
         <v>929</v>
       </c>
@@ -26949,7 +26950,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="1433" spans="1:2" ht="151.9" x14ac:dyDescent="0.6">
+    <row r="1433" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1433" s="11" t="s">
         <v>1090</v>
       </c>
@@ -26957,7 +26958,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="1434" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1434" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1434" s="11" t="s">
         <v>984</v>
       </c>
@@ -26965,7 +26966,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="1435" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1435" s="11" t="s">
         <v>446</v>
       </c>
@@ -26973,7 +26974,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="1436" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1436" s="11" t="s">
         <v>1122</v>
       </c>
@@ -26981,7 +26982,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="1437" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1437" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1437" s="11" t="s">
         <v>1168</v>
       </c>
@@ -26989,7 +26990,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="1438" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1438" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1438" s="11" t="s">
         <v>1455</v>
       </c>
@@ -26997,7 +26998,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="1439" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1439" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1439" s="11" t="s">
         <v>1091</v>
       </c>
@@ -27013,7 +27014,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="1441" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1441" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1441" s="11" t="s">
         <v>1123</v>
       </c>
@@ -27021,7 +27022,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="1442" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1442" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1442" s="11" t="s">
         <v>1029</v>
       </c>
@@ -27029,7 +27030,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="1443" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1443" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1443" s="11" t="s">
         <v>1030</v>
       </c>
@@ -27037,7 +27038,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="1444" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1444" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1444" s="11" t="s">
         <v>1660</v>
       </c>
@@ -27045,7 +27046,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="1445" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1445" s="11" t="s">
         <v>1124</v>
       </c>
@@ -27061,7 +27062,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="1447" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1447" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1447" s="11" t="s">
         <v>1458</v>
       </c>
@@ -27069,7 +27070,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="1448" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1448" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1448" s="11" t="s">
         <v>1169</v>
       </c>
@@ -27077,7 +27078,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="1449" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1449" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1449" s="11" t="s">
         <v>1223</v>
       </c>
@@ -27085,7 +27086,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="1450" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1450" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1450" s="11" t="s">
         <v>447</v>
       </c>
@@ -27093,7 +27094,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="1451" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1451" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1451" s="11" t="s">
         <v>1274</v>
       </c>
@@ -27101,7 +27102,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="1452" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1452" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1452" s="11" t="s">
         <v>1170</v>
       </c>
@@ -27109,7 +27110,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="1453" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1453" spans="1:2" ht="185.65" x14ac:dyDescent="0.6">
       <c r="A1453" s="11" t="s">
         <v>3083</v>
       </c>
@@ -27117,7 +27118,7 @@
         <v>3084</v>
       </c>
     </row>
-    <row r="1454" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1454" s="11" t="s">
         <v>656</v>
       </c>
@@ -27125,7 +27126,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="1455" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1455" s="11" t="s">
         <v>657</v>
       </c>
@@ -27141,7 +27142,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="1457" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1457" s="11" t="s">
         <v>1459</v>
       </c>
@@ -27165,7 +27166,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="1460" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1460" s="11" t="s">
         <v>449</v>
       </c>
@@ -27181,7 +27182,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="1462" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1462" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1462" s="11" t="s">
         <v>1434</v>
       </c>
@@ -27189,7 +27190,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="1463" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1463" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1463" s="11" t="s">
         <v>775</v>
       </c>
@@ -27205,7 +27206,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="1465" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1465" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1465" s="11" t="s">
         <v>1460</v>
       </c>
@@ -27213,7 +27214,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="1466" spans="1:2" ht="151.9" x14ac:dyDescent="0.6">
+    <row r="1466" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1466" s="11" t="s">
         <v>452</v>
       </c>
@@ -27221,7 +27222,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="1467" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1467" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1467" s="11" t="s">
         <v>1092</v>
       </c>
@@ -27245,7 +27246,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="1470" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1470" s="11" t="s">
         <v>454</v>
       </c>
@@ -27253,7 +27254,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="1471" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1471" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1471" s="11" t="s">
         <v>1366</v>
       </c>
@@ -27261,7 +27262,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="1472" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1472" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1472" s="11" t="s">
         <v>659</v>
       </c>
@@ -27269,7 +27270,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="1473" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1473" s="11" t="s">
         <v>1620</v>
       </c>
@@ -27277,7 +27278,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="1474" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1474" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1474" s="11" t="s">
         <v>661</v>
       </c>
@@ -27293,7 +27294,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="1476" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1476" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1476" s="11" t="s">
         <v>1424</v>
       </c>
@@ -27301,7 +27302,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="1477" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1477" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1477" s="11" t="s">
         <v>455</v>
       </c>
@@ -27309,7 +27310,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="1478" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1478" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1478" s="11" t="s">
         <v>777</v>
       </c>
@@ -27325,7 +27326,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="1480" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1480" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1480" s="11" t="s">
         <v>779</v>
       </c>
@@ -27333,7 +27334,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="1481" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1481" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1481" s="11" t="s">
         <v>1172</v>
       </c>
@@ -27341,7 +27342,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="1482" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1482" s="11" t="s">
         <v>1474</v>
       </c>
@@ -27349,7 +27350,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="1483" spans="1:2" ht="135" x14ac:dyDescent="0.6">
+    <row r="1483" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1483" s="11" t="s">
         <v>1388</v>
       </c>
@@ -27357,7 +27358,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="1484" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1484" s="11" t="s">
         <v>1093</v>
       </c>
@@ -27365,7 +27366,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="1485" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1485" s="11" t="s">
         <v>1653</v>
       </c>
@@ -27373,7 +27374,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="1486" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1486" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1486" s="11" t="s">
         <v>780</v>
       </c>
@@ -27381,7 +27382,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1487" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1487" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1487" s="11" t="s">
         <v>1683</v>
       </c>
@@ -27389,7 +27390,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1488" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1488" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1488" s="11" t="s">
         <v>1150</v>
       </c>
@@ -27397,7 +27398,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="1489" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1489" spans="1:2" ht="118.15" x14ac:dyDescent="0.6">
       <c r="A1489" s="11" t="s">
         <v>1094</v>
       </c>
@@ -27405,7 +27406,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="1490" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1490" s="11" t="s">
         <v>1426</v>
       </c>
@@ -27413,7 +27414,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="1491" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1491" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1491" s="11" t="s">
         <v>1564</v>
       </c>
@@ -27421,7 +27422,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="1492" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1492" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1492" s="11" t="s">
         <v>1428</v>
       </c>
@@ -27429,7 +27430,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="1493" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1493" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1493" s="11" t="s">
         <v>1</v>
       </c>
@@ -27437,7 +27438,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="1494" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1494" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1494" s="11" t="s">
         <v>1371</v>
       </c>
@@ -27445,7 +27446,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="1495" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1495" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1495" s="11" t="s">
         <v>456</v>
       </c>
@@ -27461,7 +27462,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="1497" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1497" s="11" t="s">
         <v>1520</v>
       </c>
@@ -27469,7 +27470,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="1498" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1498" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1498" s="11" t="s">
         <v>931</v>
       </c>
@@ -27477,7 +27478,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="1499" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1499" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1499" s="11" t="s">
         <v>932</v>
       </c>
@@ -27493,7 +27494,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="1501" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1501" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1501" s="11" t="s">
         <v>663</v>
       </c>
@@ -27501,7 +27502,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="1502" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1502" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1502" s="11" t="s">
         <v>457</v>
       </c>
@@ -27509,7 +27510,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="1503" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1503" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1503" s="11" t="s">
         <v>458</v>
       </c>
@@ -27517,7 +27518,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="1504" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1504" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1504" s="11" t="s">
         <v>459</v>
       </c>
@@ -27525,7 +27526,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="1505" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1505" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1505" s="11" t="s">
         <v>460</v>
       </c>
@@ -27533,7 +27534,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="1506" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1506" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1506" s="11" t="s">
         <v>461</v>
       </c>
@@ -27541,7 +27542,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="1507" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1507" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1507" s="11" t="s">
         <v>462</v>
       </c>
@@ -27565,7 +27566,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="1510" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1510" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1510" s="11" t="s">
         <v>1675</v>
       </c>
@@ -27573,7 +27574,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="1511" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1511" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1511" s="11" t="s">
         <v>465</v>
       </c>
@@ -27581,7 +27582,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="1512" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1512" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1512" s="11" t="s">
         <v>1214</v>
       </c>
@@ -27589,7 +27590,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="1513" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1513" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1513" s="11" t="s">
         <v>781</v>
       </c>
@@ -27597,7 +27598,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="1514" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1514" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1514" s="11" t="s">
         <v>1604</v>
       </c>
@@ -27613,7 +27614,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="1516" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1516" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1516" s="11" t="s">
         <v>872</v>
       </c>
@@ -27621,7 +27622,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="1517" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1517" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A1517" s="11" t="s">
         <v>1497</v>
       </c>
@@ -27629,7 +27630,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="1518" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1518" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1518" s="11" t="s">
         <v>933</v>
       </c>
@@ -27645,7 +27646,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="1520" spans="1:2" ht="84.4" x14ac:dyDescent="0.6">
+    <row r="1520" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1520" s="11" t="s">
         <v>1173</v>
       </c>
@@ -27653,7 +27654,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="1521" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1521" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1521" s="11" t="s">
         <v>466</v>
       </c>
@@ -27693,7 +27694,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="1526" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1526" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1526" s="11" t="s">
         <v>668</v>
       </c>
@@ -27709,7 +27710,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="1528" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1528" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1528" s="11" t="s">
         <v>1275</v>
       </c>
@@ -27717,7 +27718,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="1529" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1529" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1529" s="11" t="s">
         <v>670</v>
       </c>
@@ -27733,7 +27734,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="1531" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1531" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1531" s="11" t="s">
         <v>1461</v>
       </c>
@@ -27741,7 +27742,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="1532" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="1532" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A1532" s="11" t="s">
         <v>1480</v>
       </c>
@@ -27765,7 +27766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1535" spans="1:2" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="1535" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1535" s="11" t="s">
         <v>470</v>
       </c>
@@ -27821,7 +27822,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="1542" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1542" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1542" s="11" t="s">
         <v>1126</v>
       </c>
@@ -27829,7 +27830,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="1543" spans="1:2" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1543" s="11" t="s">
         <v>1603</v>
       </c>
@@ -27861,7 +27862,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="1547" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1547" spans="1:2" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A1547" s="11" t="s">
         <v>474</v>
       </c>
